--- a/academycity/data/corporatevaluation/datasets/excel/histretSP.xlsx
+++ b/academycity/data/corporatevaluation/datasets/excel/histretSP.xlsx
@@ -2098,10 +2098,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J132"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2147,3590 +2147,3041 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="130" t="n">
-        <v>1890</v>
-      </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+        <v>1927</v>
+      </c>
+      <c r="B2" s="103" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="C2" s="103" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="E2" s="38" t="n">
+        <v>0.0317</v>
+      </c>
+      <c r="F2" s="38" t="n">
+        <v>17.66</v>
+      </c>
+      <c r="G2" s="131" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2" s="132"/>
       <c r="I2" s="125" t="n">
-        <v>3.557296</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5.837912</v>
+      </c>
+      <c r="J2" s="107" t="n">
+        <v>-1.93032</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="130" t="n">
-        <v>1891</v>
-      </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+        <v>1928</v>
+      </c>
+      <c r="B3" s="103" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="C3" s="103" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D3" s="133" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E3" s="38" t="n">
+        <v>0.0345</v>
+      </c>
+      <c r="F3" s="38" t="n">
+        <v>24.35</v>
+      </c>
+      <c r="G3" s="131" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="H3" s="134" t="n">
+        <v>0.0149106392833602</v>
+      </c>
       <c r="I3" s="125" t="n">
-        <v>3.209111</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5.924959</v>
+      </c>
+      <c r="J3" s="107" t="n">
+        <v>-1.15218</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="130" t="n">
-        <v>1892</v>
-      </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+        <v>1929</v>
+      </c>
+      <c r="B4" s="103" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="C4" s="103" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D4" s="133" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="E4" s="38" t="n">
+        <v>0.0336</v>
+      </c>
+      <c r="F4" s="38" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="G4" s="131" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="H4" s="134" t="n">
+        <v>-0.0205680748170579</v>
+      </c>
       <c r="I4" s="125" t="n">
-        <v>3.267142</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5.803094</v>
+      </c>
+      <c r="J4" s="107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="130" t="n">
-        <v>1893</v>
-      </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+        <v>1930</v>
+      </c>
+      <c r="B5" s="103" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C5" s="103" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="D5" s="133" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E5" s="38" t="n">
+        <v>0.0322</v>
+      </c>
+      <c r="F5" s="38" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="G5" s="131" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="H5" s="134" t="n">
+        <v>-0.0429999927624815</v>
+      </c>
       <c r="I5" s="125" t="n">
-        <v>3.406416</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5.553561</v>
+      </c>
+      <c r="J5" s="107" t="n">
+        <v>-2.6712</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="130" t="n">
-        <v>1894</v>
-      </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+        <v>1931</v>
+      </c>
+      <c r="B6" s="103" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="C6" s="103" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="D6" s="133" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="E6" s="38" t="n">
+        <v>0.0393</v>
+      </c>
+      <c r="F6" s="38" t="n">
+        <v>8.12</v>
+      </c>
+      <c r="G6" s="131" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="H6" s="134" t="n">
+        <v>-0.0815048218611446</v>
+      </c>
       <c r="I6" s="125" t="n">
-        <v>3.969316</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5.100919</v>
+      </c>
+      <c r="J6" s="107" t="n">
+        <v>-8.93214</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="130" t="n">
-        <v>1895</v>
-      </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+        <v>1932</v>
+      </c>
+      <c r="B7" s="103" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="C7" s="103" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="D7" s="133" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E7" s="38" t="n">
+        <v>0.0335</v>
+      </c>
+      <c r="F7" s="38" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="G7" s="131" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="H7" s="134" t="n">
+        <v>-0.104664277162606</v>
+      </c>
       <c r="I7" s="125" t="n">
-        <v>3.603721</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.567035</v>
+      </c>
+      <c r="J7" s="107" t="n">
+        <v>-10.30137</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="130" t="n">
-        <v>1896</v>
-      </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+        <v>1933</v>
+      </c>
+      <c r="B8" s="103" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C8" s="103" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="D8" s="133" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E8" s="38" t="n">
+        <v>0.0353</v>
+      </c>
+      <c r="F8" s="38" t="n">
+        <v>9.97</v>
+      </c>
+      <c r="G8" s="131" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="H8" s="134" t="n">
+        <v>-0.0381194801441198</v>
+      </c>
       <c r="I8" s="125" t="n">
-        <v>3.122064</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.392942</v>
+      </c>
+      <c r="J8" s="107" t="n">
+        <v>-5.19243</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="130" t="n">
-        <v>1897</v>
-      </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
+        <v>1934</v>
+      </c>
+      <c r="B9" s="103" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="C9" s="103" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="D9" s="133" t="n">
+        <v>0.278333333333333</v>
+      </c>
+      <c r="E9" s="38" t="n">
+        <v>0.0301</v>
+      </c>
+      <c r="F9" s="38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G9" s="131" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="H9" s="134" t="n">
+        <v>0.0290620727521556</v>
+      </c>
       <c r="I9" s="125" t="n">
-        <v>3.220717</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.52061</v>
+      </c>
+      <c r="J9" s="107" t="n">
+        <v>3.47938</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="130" t="n">
-        <v>1898</v>
-      </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
+        <v>1935</v>
+      </c>
+      <c r="B10" s="103" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="C10" s="103" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D10" s="133" t="n">
+        <v>0.1675</v>
+      </c>
+      <c r="E10" s="38" t="n">
+        <v>0.0284</v>
+      </c>
+      <c r="F10" s="38" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="G10" s="131" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="H10" s="134" t="n">
+        <v>0.097658280630269</v>
+      </c>
       <c r="I10" s="125" t="n">
-        <v>3.429628</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.962085</v>
+      </c>
+      <c r="J10" s="107" t="n">
+        <v>2.55293</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="130" t="n">
-        <v>1899</v>
-      </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+        <v>1936</v>
+      </c>
+      <c r="B11" s="103" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C11" s="103" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D11" s="133" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="E11" s="38" t="n">
+        <v>0.0259</v>
+      </c>
+      <c r="F11" s="38" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="G11" s="131" t="n">
+        <v>0.0314318975552969</v>
+      </c>
+      <c r="H11" s="134" t="n">
+        <v>0.0321860669456488</v>
+      </c>
       <c r="I11" s="125" t="n">
-        <v>3.278748</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5.121795</v>
+      </c>
+      <c r="J11" s="107" t="n">
+        <v>1.03218</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="130" t="n">
-        <v>1900</v>
-      </c>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+        <v>1937</v>
+      </c>
+      <c r="B12" s="103" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="C12" s="103" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="D12" s="133" t="n">
+        <v>0.275833333333333</v>
+      </c>
+      <c r="E12" s="38" t="n">
+        <v>0.0273</v>
+      </c>
+      <c r="F12" s="38" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="G12" s="131" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="H12" s="134" t="n">
+        <v>0.0256339818364459</v>
+      </c>
       <c r="I12" s="125" t="n">
-        <v>3.748799</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5.253087</v>
+      </c>
+      <c r="J12" s="107" t="n">
+        <v>3.72596</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="130" t="n">
-        <v>1901</v>
-      </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+        <v>1938</v>
+      </c>
+      <c r="B13" s="103" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="C13" s="103" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="D13" s="133" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="E13" s="38" t="n">
+        <v>0.0256</v>
+      </c>
+      <c r="F13" s="38" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="G13" s="131" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="H13" s="134" t="n">
+        <v>-0.00873695790684603</v>
+      </c>
       <c r="I13" s="125" t="n">
-        <v>3.145277</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5.207191</v>
+      </c>
+      <c r="J13" s="107" t="n">
+        <v>-2.02781</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="130" t="n">
-        <v>1902</v>
-      </c>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+        <v>1939</v>
+      </c>
+      <c r="B14" s="103" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="C14" s="103" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="D14" s="133" t="n">
+        <v>0.0458333333333333</v>
+      </c>
+      <c r="E14" s="38" t="n">
+        <v>0.0235</v>
+      </c>
+      <c r="F14" s="38" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="G14" s="131" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="H14" s="134" t="n">
+        <v>-0.0130160387817538</v>
+      </c>
       <c r="I14" s="125" t="n">
-        <v>3.708177</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5.139414</v>
+      </c>
+      <c r="J14" s="107" t="n">
+        <v>-1.30101</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="130" t="n">
-        <v>1903</v>
-      </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+        <v>1940</v>
+      </c>
+      <c r="B15" s="103" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="C15" s="103" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="D15" s="133" t="n">
+        <v>0.0358333333333333</v>
+      </c>
+      <c r="E15" s="38" t="n">
+        <v>0.0201</v>
+      </c>
+      <c r="F15" s="38" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="G15" s="131" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="H15" s="134" t="n">
+        <v>0.0330660265936933</v>
+      </c>
       <c r="I15" s="125" t="n">
-        <v>3.766208</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5.309354</v>
+      </c>
+      <c r="J15" s="107" t="n">
+        <v>0.71899</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="130" t="n">
-        <v>1904</v>
-      </c>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+        <v>1941</v>
+      </c>
+      <c r="B16" s="103" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C16" s="103" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="D16" s="133" t="n">
+        <v>0.129166666666667</v>
+      </c>
+      <c r="E16" s="38" t="n">
+        <v>0.0247</v>
+      </c>
+      <c r="F16" s="38" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="G16" s="131" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="H16" s="134" t="n">
+        <v>-0.0838461703627221</v>
+      </c>
       <c r="I16" s="125" t="n">
-        <v>3.940301</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.864185</v>
+      </c>
+      <c r="J16" s="107" t="n">
+        <v>5.116</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="130" t="n">
-        <v>1905</v>
-      </c>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+        <v>1942</v>
+      </c>
+      <c r="B17" s="103" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="C17" s="103" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="D17" s="133" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="E17" s="38" t="n">
+        <v>0.0249</v>
+      </c>
+      <c r="F17" s="38" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="G17" s="131" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H17" s="134" t="n">
+        <v>0.0333303523611868</v>
+      </c>
       <c r="I17" s="125" t="n">
-        <v>3.452841</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5.02631</v>
+      </c>
+      <c r="J17" s="107" t="n">
+        <v>10.92247</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="130" t="n">
-        <v>1906</v>
-      </c>
-      <c r="B18" s="103"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+        <v>1943</v>
+      </c>
+      <c r="B18" s="103" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="C18" s="103" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="D18" s="133" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E18" s="38" t="n">
+        <v>0.0249</v>
+      </c>
+      <c r="F18" s="38" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="G18" s="131" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="H18" s="134" t="n">
+        <v>0.114462697286877</v>
+      </c>
       <c r="I18" s="125" t="n">
-        <v>4.096984</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5.601635</v>
+      </c>
+      <c r="J18" s="107" t="n">
+        <v>5.96939</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="130" t="n">
-        <v>1907</v>
-      </c>
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
+        <v>1944</v>
+      </c>
+      <c r="B19" s="103" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C19" s="103" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="D19" s="133" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E19" s="38" t="n">
+        <v>0.0248</v>
+      </c>
+      <c r="F19" s="38" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="G19" s="131" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="H19" s="134" t="n">
+        <v>0.16584229425873</v>
+      </c>
       <c r="I19" s="125" t="n">
-        <v>4.52061</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6.530623</v>
+      </c>
+      <c r="J19" s="107" t="n">
+        <v>1.63698</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="130" t="n">
-        <v>1908</v>
-      </c>
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
+        <v>1945</v>
+      </c>
+      <c r="B20" s="103" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="C20" s="103" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D20" s="133" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E20" s="38" t="n">
+        <v>0.0233</v>
+      </c>
+      <c r="F20" s="38" t="n">
+        <v>17.36</v>
+      </c>
+      <c r="G20" s="131" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="H20" s="134" t="n">
+        <v>0.117773756041345</v>
+      </c>
       <c r="I20" s="125" t="n">
-        <v>4.079575</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7.299759</v>
+      </c>
+      <c r="J20" s="107" t="n">
+        <v>2.2738</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="130" t="n">
-        <v>1909</v>
-      </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
+        <v>1946</v>
+      </c>
+      <c r="B21" s="103" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="C21" s="103" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="D21" s="133" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E21" s="38" t="n">
+        <v>0.0224</v>
+      </c>
+      <c r="F21" s="38" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="G21" s="131" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="H21" s="134" t="n">
+        <v>0.241016723976778</v>
+      </c>
       <c r="I21" s="125" t="n">
-        <v>3.986725</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9.059123</v>
+      </c>
+      <c r="J21" s="107" t="n">
+        <v>8.47615</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="130" t="n">
-        <v>1910</v>
-      </c>
-      <c r="B22" s="103"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
+        <v>1947</v>
+      </c>
+      <c r="B22" s="103" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="C22" s="103" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="D22" s="133" t="n">
+        <v>0.600833333333333</v>
+      </c>
+      <c r="E22" s="38" t="n">
+        <v>0.0239</v>
+      </c>
+      <c r="F22" s="38" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="G22" s="131" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="H22" s="134" t="n">
+        <v>0.212638353624297</v>
+      </c>
       <c r="I22" s="125" t="n">
-        <v>4.305896</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10.98544</v>
+      </c>
+      <c r="J22" s="107" t="n">
+        <v>14.38941</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="130" t="n">
-        <v>1911</v>
-      </c>
-      <c r="B23" s="103"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
+        <v>1948</v>
+      </c>
+      <c r="B23" s="103" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="C23" s="103" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="D23" s="133" t="n">
+        <v>1.045</v>
+      </c>
+      <c r="E23" s="38" t="n">
+        <v>0.0244</v>
+      </c>
+      <c r="F23" s="38" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="G23" s="131" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="H23" s="134" t="n">
+        <v>0.0205854294411512</v>
+      </c>
       <c r="I23" s="125" t="n">
-        <v>4.207243</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11.21158</v>
+      </c>
+      <c r="J23" s="107" t="n">
+        <v>7.68944</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="130" t="n">
-        <v>1912</v>
-      </c>
-      <c r="B24" s="103"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
+        <v>1949</v>
+      </c>
+      <c r="B24" s="103" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C24" s="103" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="D24" s="133" t="n">
+        <v>1.115</v>
+      </c>
+      <c r="E24" s="38" t="n">
+        <v>0.0219</v>
+      </c>
+      <c r="F24" s="38" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="G24" s="131" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="H24" s="134" t="n">
+        <v>0.000893718815724531</v>
+      </c>
       <c r="I24" s="125" t="n">
-        <v>4.36973</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11.2216</v>
+      </c>
+      <c r="J24" s="107" t="n">
+        <v>-0.97054</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="130" t="n">
-        <v>1913</v>
-      </c>
-      <c r="B25" s="103"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
+        <v>1950</v>
+      </c>
+      <c r="B25" s="103" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="C25" s="103" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D25" s="133" t="n">
+        <v>1.20333333333333</v>
+      </c>
+      <c r="E25" s="38" t="n">
+        <v>0.0239</v>
+      </c>
+      <c r="F25" s="38" t="n">
+        <v>20.43</v>
+      </c>
+      <c r="G25" s="131" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H25" s="134" t="n">
+        <v>0.0364038996221572</v>
+      </c>
       <c r="I25" s="125" t="n">
-        <v>4.36973</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11.63011</v>
+      </c>
+      <c r="J25" s="107" t="n">
+        <v>1.08505</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="130" t="n">
-        <v>1914</v>
-      </c>
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
+        <v>1951</v>
+      </c>
+      <c r="B26" s="103" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="C26" s="103" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="D26" s="133" t="n">
+        <v>1.5175</v>
+      </c>
+      <c r="E26" s="38" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="F26" s="38" t="n">
+        <v>23.77</v>
+      </c>
+      <c r="G26" s="131" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="H26" s="134" t="n">
+        <v>0.0604766420953886</v>
+      </c>
       <c r="I26" s="125" t="n">
-        <v>4.532216</v>
+        <v>12.33346</v>
       </c>
       <c r="J26" s="107" t="n">
-        <v>1.34907</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7.86011</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="130" t="n">
-        <v>1915</v>
-      </c>
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
+        <v>1952</v>
+      </c>
+      <c r="B27" s="103" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="C27" s="103" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D27" s="133" t="n">
+        <v>1.7225</v>
+      </c>
+      <c r="E27" s="38" t="n">
+        <v>0.0275</v>
+      </c>
+      <c r="F27" s="38" t="n">
+        <v>26.57</v>
+      </c>
+      <c r="G27" s="131" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="H27" s="134" t="n">
+        <v>0.0440663041839029</v>
+      </c>
       <c r="I27" s="125" t="n">
-        <v>4.160818</v>
+        <v>12.87695</v>
       </c>
       <c r="J27" s="107" t="n">
-        <v>0.91514</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.27929</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="130" t="n">
-        <v>1916</v>
-      </c>
-      <c r="B28" s="103"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
+        <v>1953</v>
+      </c>
+      <c r="B28" s="103" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="C28" s="103" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="D28" s="133" t="n">
+        <v>1.89083333333333</v>
+      </c>
+      <c r="E28" s="38" t="n">
+        <v>0.0259</v>
+      </c>
+      <c r="F28" s="38" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="G28" s="131" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="H28" s="134" t="n">
+        <v>0.115166246665553</v>
+      </c>
       <c r="I28" s="125" t="n">
-        <v>4.555429</v>
+        <v>14.35994</v>
       </c>
       <c r="J28" s="107" t="n">
-        <v>7.66694</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.81607</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="130" t="n">
-        <v>1917</v>
-      </c>
-      <c r="B29" s="103"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
+        <v>1954</v>
+      </c>
+      <c r="B29" s="103" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C29" s="103" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="D29" s="133" t="n">
+        <v>0.938333333333333</v>
+      </c>
+      <c r="E29" s="38" t="n">
+        <v>0.0251</v>
+      </c>
+      <c r="F29" s="38" t="n">
+        <v>35.98</v>
+      </c>
+      <c r="G29" s="131" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="H29" s="134" t="n">
+        <v>0.0092270580517746</v>
+      </c>
       <c r="I29" s="125" t="n">
-        <v>4.648278</v>
+        <v>14.49244</v>
       </c>
       <c r="J29" s="107" t="n">
-        <v>17.84074</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.31133</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="130" t="n">
-        <v>1918</v>
-      </c>
-      <c r="B30" s="103"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
+        <v>1955</v>
+      </c>
+      <c r="B30" s="103" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="C30" s="103" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="D30" s="133" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="E30" s="38" t="n">
+        <v>0.0296</v>
+      </c>
+      <c r="F30" s="38" t="n">
+        <v>45.48</v>
+      </c>
+      <c r="G30" s="131" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="H30" s="134" t="n">
+        <v>0</v>
+      </c>
       <c r="I30" s="125" t="n">
-        <v>4.944236</v>
+        <v>14.49244</v>
       </c>
       <c r="J30" s="107" t="n">
-        <v>17.28395</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-0.27933</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="130" t="n">
-        <v>1919</v>
+        <v>1956</v>
       </c>
       <c r="B31" s="103" t="n">
-        <v>5.73</v>
+        <v>3.75</v>
       </c>
       <c r="C31" s="103" t="n">
-        <v>7.77</v>
+        <v>4.37</v>
+      </c>
+      <c r="D31" s="133" t="n">
+        <v>2.6275</v>
+      </c>
+      <c r="E31" s="38" t="n">
+        <v>0.0359</v>
+      </c>
+      <c r="F31" s="38" t="n">
+        <v>46.67</v>
+      </c>
+      <c r="G31" s="131" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="H31" s="134" t="n">
+        <v>0.00914269784798139</v>
       </c>
       <c r="I31" s="125" t="n">
-        <v>5.437499</v>
+        <v>14.62494</v>
       </c>
       <c r="J31" s="107" t="n">
-        <v>15.23546</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.52505</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="130" t="n">
-        <v>1920</v>
+        <v>1957</v>
       </c>
       <c r="B32" s="103" t="n">
-        <v>6.26</v>
+        <v>3.81</v>
       </c>
       <c r="C32" s="103" t="n">
-        <v>8.56</v>
+        <v>5.03</v>
+      </c>
+      <c r="D32" s="133" t="n">
+        <v>3.225</v>
+      </c>
+      <c r="E32" s="38" t="n">
+        <v>0.0321</v>
+      </c>
+      <c r="F32" s="38" t="n">
+        <v>39.99</v>
+      </c>
+      <c r="G32" s="131" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H32" s="134" t="n">
+        <v>0.0271802824490219</v>
       </c>
       <c r="I32" s="125" t="n">
-        <v>5.959777</v>
+        <v>15.02245</v>
       </c>
       <c r="J32" s="107" t="n">
-        <v>15.625</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.34151</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="130" t="n">
-        <v>1921</v>
+        <v>1958</v>
       </c>
       <c r="B33" s="103" t="n">
-        <v>5.5</v>
+        <v>4.08</v>
       </c>
       <c r="C33" s="103" t="n">
-        <v>7.61</v>
+        <v>4.85</v>
+      </c>
+      <c r="D33" s="133" t="n">
+        <v>1.77083333333333</v>
+      </c>
+      <c r="E33" s="38" t="n">
+        <v>0.0386</v>
+      </c>
+      <c r="F33" s="38" t="n">
+        <v>55.21</v>
+      </c>
+      <c r="G33" s="131" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="H33" s="134" t="n">
+        <v>0.00661543223641958</v>
       </c>
       <c r="I33" s="125" t="n">
-        <v>5.826306</v>
+        <v>15.12183</v>
       </c>
       <c r="J33" s="107" t="n">
-        <v>-10.93555</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.72916</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="130" t="n">
-        <v>1922</v>
+        <v>1959</v>
       </c>
       <c r="B34" s="103" t="n">
-        <v>5.08</v>
+        <v>4.58</v>
       </c>
       <c r="C34" s="103" t="n">
-        <v>7.02</v>
+        <v>5.28</v>
+      </c>
+      <c r="D34" s="133" t="n">
+        <v>3.38583333333333</v>
+      </c>
+      <c r="E34" s="38" t="n">
+        <v>0.0469</v>
+      </c>
+      <c r="F34" s="38" t="n">
+        <v>59.89</v>
+      </c>
+      <c r="G34" s="131" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H34" s="134" t="n">
+        <v>0.00109510555270087</v>
       </c>
       <c r="I34" s="125" t="n">
-        <v>5.907549</v>
+        <v>15.13839</v>
       </c>
       <c r="J34" s="107" t="n">
-        <v>-6.16246</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.01068</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="130" t="n">
-        <v>1923</v>
+        <v>1960</v>
       </c>
       <c r="B35" s="103" t="n">
-        <v>5.09</v>
+        <v>4.35</v>
       </c>
       <c r="C35" s="103" t="n">
-        <v>7.38</v>
+        <v>5.1</v>
+      </c>
+      <c r="D35" s="133" t="n">
+        <v>2.88333333333333</v>
+      </c>
+      <c r="E35" s="38" t="n">
+        <v>0.0384</v>
+      </c>
+      <c r="F35" s="38" t="n">
+        <v>58.11</v>
+      </c>
+      <c r="G35" s="131" t="n">
+        <v>0.0341</v>
+      </c>
+      <c r="H35" s="134" t="n">
+        <v>0.00765867440328871</v>
       </c>
       <c r="I35" s="125" t="n">
-        <v>5.994596</v>
+        <v>15.25433</v>
       </c>
       <c r="J35" s="107" t="n">
-        <v>1.79104</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.45798</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="130" t="n">
-        <v>1924</v>
+        <v>1961</v>
       </c>
       <c r="B36" s="103" t="n">
-        <v>4.95</v>
+        <v>4.42</v>
       </c>
       <c r="C36" s="103" t="n">
-        <v>6.46</v>
+        <v>5.1</v>
+      </c>
+      <c r="D36" s="133" t="n">
+        <v>2.35416666666667</v>
+      </c>
+      <c r="E36" s="38" t="n">
+        <v>0.0406</v>
+      </c>
+      <c r="F36" s="38" t="n">
+        <v>71.55</v>
+      </c>
+      <c r="G36" s="131" t="n">
+        <v>0.0285</v>
+      </c>
+      <c r="H36" s="134" t="n">
+        <v>0.00977165172118344</v>
       </c>
       <c r="I36" s="125" t="n">
-        <v>6.006202</v>
+        <v>15.40339</v>
       </c>
       <c r="J36" s="107" t="n">
-        <v>0.43988</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.07072</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="130" t="n">
-        <v>1925</v>
+        <v>1962</v>
       </c>
       <c r="B37" s="103" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="C37" s="103" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="D37" s="133" t="n">
+        <v>2.77333333333333</v>
+      </c>
+      <c r="E37" s="38" t="n">
+        <v>0.0386</v>
+      </c>
+      <c r="F37" s="38" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="G37" s="131" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="H37" s="134" t="n">
+        <v>0.00322591325675714</v>
+      </c>
+      <c r="I37" s="125" t="n">
+        <v>15.45308</v>
+      </c>
+      <c r="J37" s="107" t="n">
+        <v>1.19877</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="130" t="n">
+        <v>1963</v>
+      </c>
+      <c r="B38" s="103" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C38" s="103" t="n">
         <v>4.85</v>
       </c>
-      <c r="C37" s="103" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="I37" s="125" t="n">
-        <v>6.319569</v>
-      </c>
-      <c r="J37" s="107" t="n">
-        <v>2.43309</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="130" t="n">
-        <v>1926</v>
-      </c>
-      <c r="B38" s="103" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="C38" s="103" t="n">
-        <v>5.68</v>
+      <c r="D38" s="133" t="n">
+        <v>3.15916666666667</v>
+      </c>
+      <c r="E38" s="38" t="n">
+        <v>0.0413</v>
+      </c>
+      <c r="F38" s="38" t="n">
+        <v>75.02</v>
+      </c>
+      <c r="G38" s="131" t="n">
+        <v>0.0313</v>
+      </c>
+      <c r="H38" s="134" t="n">
+        <v>0.0214365032731338</v>
       </c>
       <c r="I38" s="125" t="n">
-        <v>6.064233</v>
+        <v>15.78434</v>
       </c>
       <c r="J38" s="107" t="n">
-        <v>0.90261</v>
+        <v>1.23967</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="130" t="n">
-        <v>1927</v>
+        <v>1964</v>
       </c>
       <c r="B39" s="103" t="n">
-        <v>4.46</v>
+        <v>4.44</v>
       </c>
       <c r="C39" s="103" t="n">
-        <v>5.32</v>
+        <v>4.81</v>
+      </c>
+      <c r="D39" s="133" t="n">
+        <v>3.54666666666667</v>
       </c>
       <c r="E39" s="38" t="n">
-        <v>0.0317</v>
+        <v>0.0418</v>
       </c>
       <c r="F39" s="38" t="n">
-        <v>17.66</v>
+        <v>84.75</v>
       </c>
       <c r="G39" s="131" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="H39" s="132"/>
+        <v>0.0305</v>
+      </c>
+      <c r="H39" s="134" t="n">
+        <v>0.0125915939469119</v>
+      </c>
       <c r="I39" s="125" t="n">
-        <v>5.837912</v>
+        <v>15.98309</v>
       </c>
       <c r="J39" s="107" t="n">
-        <v>-1.93032</v>
+        <v>1.27891</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="130" t="n">
-        <v>1928</v>
+        <v>1965</v>
       </c>
       <c r="B40" s="103" t="n">
-        <v>4.61</v>
+        <v>4.68</v>
       </c>
       <c r="C40" s="103" t="n">
-        <v>5.6</v>
+        <v>5.02</v>
       </c>
       <c r="D40" s="133" t="n">
-        <v>3.08</v>
+        <v>3.94916666666667</v>
       </c>
       <c r="E40" s="38" t="n">
-        <v>0.0345</v>
+        <v>0.0462</v>
       </c>
       <c r="F40" s="38" t="n">
-        <v>24.35</v>
+        <v>92.43</v>
       </c>
       <c r="G40" s="131" t="n">
-        <v>0.043</v>
+        <v>0.0306</v>
       </c>
       <c r="H40" s="134" t="n">
-        <v>0.0149106392833602</v>
+        <v>0.0165800230118207</v>
       </c>
       <c r="I40" s="125" t="n">
-        <v>5.924959</v>
+        <v>16.24809</v>
       </c>
       <c r="J40" s="107" t="n">
-        <v>-1.15218</v>
+        <v>1.58517</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="130" t="n">
-        <v>1929</v>
+        <v>1966</v>
       </c>
       <c r="B41" s="103" t="n">
-        <v>4.67</v>
+        <v>5.39</v>
       </c>
       <c r="C41" s="103" t="n">
-        <v>5.95</v>
+        <v>6.18</v>
       </c>
       <c r="D41" s="133" t="n">
-        <v>3.16</v>
+        <v>4.8625</v>
       </c>
       <c r="E41" s="38" t="n">
-        <v>0.0336</v>
+        <v>0.0484</v>
       </c>
       <c r="F41" s="38" t="n">
-        <v>21.45</v>
+        <v>80.33</v>
       </c>
       <c r="G41" s="131" t="n">
-        <v>0.041</v>
+        <v>0.0359</v>
       </c>
       <c r="H41" s="134" t="n">
-        <v>-0.0205680748170579</v>
+        <v>0.0122328224425148</v>
       </c>
       <c r="I41" s="125" t="n">
-        <v>5.803094</v>
+        <v>16.44685</v>
       </c>
       <c r="J41" s="107" t="n">
-        <v>0</v>
+        <v>3.01508</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="130" t="n">
-        <v>1930</v>
+        <v>1967</v>
       </c>
       <c r="B42" s="103" t="n">
-        <v>4.52</v>
+        <v>6.19</v>
       </c>
       <c r="C42" s="103" t="n">
-        <v>6.71</v>
+        <v>6.93</v>
       </c>
       <c r="D42" s="133" t="n">
-        <v>4.55</v>
+        <v>4.30666666666667</v>
       </c>
       <c r="E42" s="38" t="n">
-        <v>0.0322</v>
+        <v>0.057</v>
       </c>
       <c r="F42" s="38" t="n">
-        <v>15.34</v>
+        <v>96.47</v>
       </c>
       <c r="G42" s="131" t="n">
-        <v>0.047</v>
+        <v>0.0309</v>
       </c>
       <c r="H42" s="134" t="n">
-        <v>-0.0429999927624815</v>
+        <v>0.0231618820625226</v>
       </c>
       <c r="I42" s="125" t="n">
-        <v>5.553561</v>
+        <v>16.82779</v>
       </c>
       <c r="J42" s="107" t="n">
-        <v>-2.6712</v>
+        <v>2.77279</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="130" t="n">
-        <v>1931</v>
+        <v>1968</v>
       </c>
       <c r="B43" s="103" t="n">
-        <v>5.32</v>
+        <v>6.45</v>
       </c>
       <c r="C43" s="103" t="n">
-        <v>10.42</v>
+        <v>7.23</v>
       </c>
       <c r="D43" s="133" t="n">
-        <v>2.31</v>
+        <v>5.33833333333333</v>
       </c>
       <c r="E43" s="38" t="n">
-        <v>0.0393</v>
+        <v>0.0603</v>
       </c>
       <c r="F43" s="38" t="n">
-        <v>8.12</v>
+        <v>103.86</v>
       </c>
       <c r="G43" s="131" t="n">
-        <v>0.061</v>
+        <v>0.0293</v>
       </c>
       <c r="H43" s="134" t="n">
-        <v>-0.0815048218611446</v>
+        <v>0.0413387616555709</v>
       </c>
       <c r="I43" s="125" t="n">
-        <v>5.100919</v>
+        <v>17.52343</v>
       </c>
       <c r="J43" s="107" t="n">
-        <v>-8.93214</v>
+        <v>4.2718</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="130" t="n">
-        <v>1932</v>
+        <v>1969</v>
       </c>
       <c r="B44" s="103" t="n">
-        <v>4.59</v>
+        <v>7.72</v>
       </c>
       <c r="C44" s="103" t="n">
-        <v>8.42</v>
+        <v>8.65</v>
       </c>
       <c r="D44" s="133" t="n">
-        <v>1.07</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="E44" s="38" t="n">
-        <v>0.0335</v>
+        <v>0.0765</v>
       </c>
       <c r="F44" s="38" t="n">
-        <v>6.92</v>
+        <v>92.06</v>
       </c>
       <c r="G44" s="131" t="n">
-        <v>0.072</v>
+        <v>0.0352</v>
       </c>
       <c r="H44" s="134" t="n">
-        <v>-0.104664277162606</v>
+        <v>0.0699434985045735</v>
       </c>
       <c r="I44" s="125" t="n">
-        <v>4.567035</v>
+        <v>18.74908</v>
       </c>
       <c r="J44" s="107" t="n">
-        <v>-10.30137</v>
+        <v>5.46239</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="130" t="n">
-        <v>1933</v>
+        <v>1970</v>
       </c>
       <c r="B45" s="103" t="n">
-        <v>4.5</v>
+        <v>7.64</v>
       </c>
       <c r="C45" s="103" t="n">
-        <v>7.75</v>
+        <v>9.12</v>
       </c>
       <c r="D45" s="133" t="n">
-        <v>0.96</v>
+        <v>6.39166666666667</v>
       </c>
       <c r="E45" s="38" t="n">
-        <v>0.0353</v>
+        <v>0.0639</v>
       </c>
       <c r="F45" s="38" t="n">
-        <v>9.97</v>
+        <v>92.15</v>
       </c>
       <c r="G45" s="131" t="n">
-        <v>0.041</v>
+        <v>0.0346</v>
       </c>
       <c r="H45" s="134" t="n">
-        <v>-0.0381194801441198</v>
+        <v>0.0821549644035868</v>
       </c>
       <c r="I45" s="125" t="n">
-        <v>4.392942</v>
+        <v>20.28941</v>
       </c>
       <c r="J45" s="107" t="n">
-        <v>-5.19243</v>
+        <v>5.83826</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="130" t="n">
-        <v>1934</v>
+        <v>1971</v>
       </c>
       <c r="B46" s="103" t="n">
-        <v>3.81</v>
+        <v>7.25</v>
       </c>
       <c r="C46" s="103" t="n">
-        <v>6.23</v>
+        <v>8.38</v>
       </c>
       <c r="D46" s="133" t="n">
-        <v>0.278333333333333</v>
+        <v>4.3325</v>
       </c>
       <c r="E46" s="38" t="n">
-        <v>0.0301</v>
+        <v>0.0593</v>
       </c>
       <c r="F46" s="38" t="n">
-        <v>9.5</v>
+        <v>102.09</v>
       </c>
       <c r="G46" s="131" t="n">
-        <v>0.037</v>
+        <v>0.031</v>
       </c>
       <c r="H46" s="134" t="n">
-        <v>0.0290620727521556</v>
+        <v>0.0424492382972201</v>
       </c>
       <c r="I46" s="125" t="n">
-        <v>4.52061</v>
+        <v>21.15068</v>
       </c>
       <c r="J46" s="107" t="n">
-        <v>3.47938</v>
+        <v>4.29277</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="130" t="n">
-        <v>1935</v>
+        <v>1972</v>
       </c>
       <c r="B47" s="103" t="n">
-        <v>3.44</v>
+        <v>7.08</v>
       </c>
       <c r="C47" s="103" t="n">
-        <v>5.3</v>
+        <v>7.93</v>
       </c>
       <c r="D47" s="133" t="n">
-        <v>0.1675</v>
+        <v>4.0725</v>
       </c>
       <c r="E47" s="38" t="n">
-        <v>0.0284</v>
+        <v>0.0636</v>
       </c>
       <c r="F47" s="38" t="n">
-        <v>13.43</v>
+        <v>118.05</v>
       </c>
       <c r="G47" s="131" t="n">
-        <v>0.038</v>
+        <v>0.027</v>
       </c>
       <c r="H47" s="134" t="n">
-        <v>0.097658280630269</v>
+        <v>0.0297574356947388</v>
       </c>
       <c r="I47" s="125" t="n">
-        <v>4.962085</v>
+        <v>21.78007</v>
       </c>
       <c r="J47" s="107" t="n">
-        <v>2.55293</v>
+        <v>3.27228</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="130" t="n">
-        <v>1936</v>
+        <v>1973</v>
       </c>
       <c r="B48" s="103" t="n">
-        <v>3.1</v>
+        <v>7.68</v>
       </c>
       <c r="C48" s="103" t="n">
-        <v>4.53</v>
+        <v>8.48</v>
       </c>
       <c r="D48" s="133" t="n">
-        <v>0.1725</v>
+        <v>7.03166666666667</v>
       </c>
       <c r="E48" s="38" t="n">
-        <v>0.0259</v>
+        <v>0.0674</v>
       </c>
       <c r="F48" s="38" t="n">
-        <v>17.18</v>
+        <v>97.55</v>
       </c>
       <c r="G48" s="131" t="n">
-        <v>0.0314318975552969</v>
+        <v>0.037</v>
       </c>
       <c r="H48" s="134" t="n">
-        <v>0.0321860669456488</v>
+        <v>0.0342202756924106</v>
       </c>
       <c r="I48" s="125" t="n">
-        <v>5.121795</v>
+        <v>22.52539</v>
       </c>
       <c r="J48" s="107" t="n">
-        <v>1.03218</v>
+        <v>6.17776</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="130" t="n">
-        <v>1937</v>
+        <v>1974</v>
       </c>
       <c r="B49" s="103" t="n">
-        <v>3.21</v>
+        <v>8.89</v>
       </c>
       <c r="C49" s="103" t="n">
-        <v>5.73</v>
+        <v>10.63</v>
       </c>
       <c r="D49" s="133" t="n">
-        <v>0.275833333333333</v>
+        <v>7.83</v>
       </c>
       <c r="E49" s="38" t="n">
-        <v>0.0273</v>
+        <v>0.0743</v>
       </c>
       <c r="F49" s="38" t="n">
-        <v>10.55</v>
+        <v>68.56</v>
       </c>
       <c r="G49" s="131" t="n">
-        <v>0.053</v>
+        <v>0.0543</v>
       </c>
       <c r="H49" s="134" t="n">
-        <v>0.0256339818364459</v>
+        <v>0.100735214795393</v>
       </c>
       <c r="I49" s="125" t="n">
-        <v>5.253087</v>
+        <v>24.79449</v>
       </c>
       <c r="J49" s="107" t="n">
-        <v>3.72596</v>
+        <v>11.0548</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="130" t="n">
-        <v>1938</v>
+        <v>1975</v>
       </c>
       <c r="B50" s="103" t="n">
-        <v>3.08</v>
+        <v>8.79</v>
       </c>
       <c r="C50" s="103" t="n">
-        <v>5.27</v>
+        <v>10.56</v>
       </c>
       <c r="D50" s="133" t="n">
-        <v>0.065</v>
+        <v>5.775</v>
       </c>
       <c r="E50" s="38" t="n">
-        <v>0.0256</v>
+        <v>0.08</v>
       </c>
       <c r="F50" s="38" t="n">
-        <v>13.14</v>
+        <v>90.19</v>
       </c>
       <c r="G50" s="131" t="n">
-        <v>0.038</v>
+        <v>0.0414</v>
       </c>
       <c r="H50" s="134" t="n">
-        <v>-0.00873695790684603</v>
-      </c>
-      <c r="I50" s="125" t="n">
-        <v>5.207191</v>
+        <v>0.0675759009360548</v>
+      </c>
+      <c r="I50" s="126" t="n">
+        <v>26.47</v>
       </c>
       <c r="J50" s="107" t="n">
-        <v>-2.02781</v>
+        <v>9.14315</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="130" t="n">
-        <v>1939</v>
+        <v>1976</v>
       </c>
       <c r="B51" s="103" t="n">
-        <v>2.94</v>
+        <v>7.98</v>
       </c>
       <c r="C51" s="103" t="n">
-        <v>4.92</v>
+        <v>9.12</v>
       </c>
       <c r="D51" s="133" t="n">
-        <v>0.0458333333333333</v>
+        <v>4.97416666666667</v>
       </c>
       <c r="E51" s="38" t="n">
-        <v>0.0235</v>
+        <v>0.0687</v>
       </c>
       <c r="F51" s="38" t="n">
-        <v>12.46</v>
+        <v>107.46</v>
       </c>
       <c r="G51" s="131" t="n">
-        <v>0.043</v>
+        <v>0.0393</v>
       </c>
       <c r="H51" s="134" t="n">
-        <v>-0.0130160387817538</v>
-      </c>
-      <c r="I51" s="125" t="n">
-        <v>5.139414</v>
+        <v>0.0819795995466566</v>
+      </c>
+      <c r="I51" s="126" t="n">
+        <v>28.64</v>
       </c>
       <c r="J51" s="107" t="n">
-        <v>-1.30101</v>
+        <v>5.74481</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="130" t="n">
-        <v>1940</v>
+        <v>1977</v>
       </c>
       <c r="B52" s="103" t="n">
-        <v>2.71</v>
+        <v>8.19</v>
       </c>
       <c r="C52" s="103" t="n">
-        <v>4.45</v>
+        <v>8.99</v>
       </c>
       <c r="D52" s="133" t="n">
-        <v>0.0358333333333333</v>
+        <v>5.26916666666667</v>
       </c>
       <c r="E52" s="38" t="n">
-        <v>0.0201</v>
+        <v>0.0769</v>
       </c>
       <c r="F52" s="38" t="n">
-        <v>10.58</v>
+        <v>95.1</v>
       </c>
       <c r="G52" s="131" t="n">
-        <v>0.052</v>
+        <v>0.0511</v>
       </c>
       <c r="H52" s="134" t="n">
-        <v>0.0330660265936933</v>
-      </c>
-      <c r="I52" s="125" t="n">
-        <v>5.309354</v>
+        <v>0.146648044692738</v>
+      </c>
+      <c r="I52" s="126" t="n">
+        <v>32.84</v>
       </c>
       <c r="J52" s="107" t="n">
-        <v>0.71899</v>
+        <v>6.50168</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="130" t="n">
-        <v>1941</v>
+        <v>1978</v>
       </c>
       <c r="B53" s="103" t="n">
-        <v>2.8</v>
+        <v>9.16</v>
       </c>
       <c r="C53" s="103" t="n">
-        <v>4.38</v>
+        <v>9.94</v>
       </c>
       <c r="D53" s="133" t="n">
-        <v>0.129166666666667</v>
+        <v>7.18833333333333</v>
       </c>
       <c r="E53" s="38" t="n">
-        <v>0.0247</v>
+        <v>0.0901</v>
       </c>
       <c r="F53" s="38" t="n">
-        <v>8.69</v>
+        <v>96.11</v>
       </c>
       <c r="G53" s="131" t="n">
-        <v>0.062</v>
+        <v>0.0539</v>
       </c>
       <c r="H53" s="134" t="n">
-        <v>-0.0838461703627221</v>
-      </c>
-      <c r="I53" s="125" t="n">
-        <v>4.864185</v>
+        <v>0.157125456760049</v>
+      </c>
+      <c r="I53" s="126" t="n">
+        <v>38</v>
       </c>
       <c r="J53" s="107" t="n">
-        <v>5.116</v>
+        <v>7.63096</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="130" t="n">
-        <v>1942</v>
+        <v>1979</v>
       </c>
       <c r="B54" s="103" t="n">
-        <v>2.81</v>
+        <v>10.74</v>
       </c>
       <c r="C54" s="103" t="n">
-        <v>4.28</v>
+        <v>12.06</v>
       </c>
       <c r="D54" s="133" t="n">
-        <v>0.3425</v>
+        <v>10.0691666666667</v>
       </c>
       <c r="E54" s="38" t="n">
-        <v>0.0249</v>
+        <v>0.1039</v>
       </c>
       <c r="F54" s="38" t="n">
-        <v>9.77</v>
+        <v>107.94</v>
       </c>
       <c r="G54" s="131" t="n">
-        <v>0.06</v>
+        <v>0.0553</v>
       </c>
       <c r="H54" s="134" t="n">
-        <v>0.0333303523611868</v>
-      </c>
-      <c r="I54" s="125" t="n">
-        <v>5.02631</v>
+        <v>0.137368421052632</v>
+      </c>
+      <c r="I54" s="126" t="n">
+        <v>43.22</v>
       </c>
       <c r="J54" s="107" t="n">
-        <v>10.92247</v>
+        <v>11.25447</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="130" t="n">
-        <v>1943</v>
+        <v>1980</v>
       </c>
       <c r="B55" s="103" t="n">
-        <v>2.74</v>
+        <v>13.21</v>
       </c>
       <c r="C55" s="103" t="n">
-        <v>3.82</v>
+        <v>15.14</v>
       </c>
       <c r="D55" s="133" t="n">
-        <v>0.38</v>
+        <v>11.4341666666667</v>
       </c>
       <c r="E55" s="38" t="n">
-        <v>0.0249</v>
+        <v>0.1284</v>
       </c>
       <c r="F55" s="38" t="n">
-        <v>11.67</v>
+        <v>135.76</v>
       </c>
       <c r="G55" s="131" t="n">
-        <v>0.047</v>
+        <v>0.0474</v>
       </c>
       <c r="H55" s="134" t="n">
-        <v>0.114462697286877</v>
-      </c>
-      <c r="I55" s="125" t="n">
-        <v>5.601635</v>
+        <v>0.0740397963905599</v>
+      </c>
+      <c r="I55" s="126" t="n">
+        <v>46.42</v>
       </c>
       <c r="J55" s="107" t="n">
-        <v>5.96939</v>
+        <v>13.5492</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="130" t="n">
-        <v>1944</v>
+        <v>1981</v>
       </c>
       <c r="B56" s="103" t="n">
-        <v>2.7</v>
+        <v>14.23</v>
       </c>
       <c r="C56" s="103" t="n">
-        <v>3.49</v>
+        <v>16.55</v>
       </c>
       <c r="D56" s="133" t="n">
-        <v>0.38</v>
+        <v>14.025</v>
       </c>
       <c r="E56" s="38" t="n">
-        <v>0.0248</v>
+        <v>0.1372</v>
       </c>
       <c r="F56" s="38" t="n">
-        <v>13.28</v>
+        <v>122.55</v>
       </c>
       <c r="G56" s="131" t="n">
-        <v>0.046</v>
+        <v>0.0557</v>
       </c>
       <c r="H56" s="134" t="n">
-        <v>0.16584229425873</v>
-      </c>
-      <c r="I56" s="125" t="n">
-        <v>6.530623</v>
+        <v>0.050840155105558</v>
+      </c>
+      <c r="I56" s="126" t="n">
+        <v>48.78</v>
       </c>
       <c r="J56" s="107" t="n">
-        <v>1.63698</v>
+        <v>10.33472</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="130" t="n">
-        <v>1945</v>
+        <v>1982</v>
       </c>
       <c r="B57" s="103" t="n">
-        <v>2.61</v>
+        <v>11.83</v>
       </c>
       <c r="C57" s="103" t="n">
-        <v>3.1</v>
+        <v>14.14</v>
       </c>
       <c r="D57" s="133" t="n">
-        <v>0.38</v>
+        <v>10.6141666666667</v>
       </c>
       <c r="E57" s="38" t="n">
-        <v>0.0233</v>
+        <v>0.1054</v>
       </c>
       <c r="F57" s="38" t="n">
-        <v>17.36</v>
+        <v>140.64</v>
       </c>
       <c r="G57" s="131" t="n">
-        <v>0.039</v>
+        <v>0.0493</v>
       </c>
       <c r="H57" s="134" t="n">
-        <v>0.117773756041345</v>
-      </c>
-      <c r="I57" s="125" t="n">
-        <v>7.299759</v>
+        <v>0.00574005740057393</v>
+      </c>
+      <c r="I57" s="126" t="n">
+        <v>49.06</v>
       </c>
       <c r="J57" s="107" t="n">
-        <v>2.2738</v>
+        <v>6.13143</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="130" t="n">
-        <v>1946</v>
+        <v>1983</v>
       </c>
       <c r="B58" s="103" t="n">
-        <v>2.61</v>
+        <v>12.57</v>
       </c>
       <c r="C58" s="103" t="n">
-        <v>3.17</v>
+        <v>13.75</v>
       </c>
       <c r="D58" s="133" t="n">
-        <v>0.38</v>
+        <v>8.61083333333333</v>
       </c>
       <c r="E58" s="38" t="n">
-        <v>0.0224</v>
+        <v>0.1183</v>
       </c>
       <c r="F58" s="38" t="n">
-        <v>15.3</v>
+        <v>164.93</v>
       </c>
       <c r="G58" s="131" t="n">
-        <v>0.039</v>
+        <v>0.0432</v>
       </c>
       <c r="H58" s="134" t="n">
-        <v>0.241016723976778</v>
-      </c>
-      <c r="I58" s="125" t="n">
-        <v>9.059123</v>
+        <v>0.0474928658785161</v>
+      </c>
+      <c r="I58" s="126" t="n">
+        <v>51.39</v>
       </c>
       <c r="J58" s="107" t="n">
-        <v>8.47615</v>
+        <v>3.21244</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="130" t="n">
-        <v>1947</v>
+        <v>1984</v>
       </c>
       <c r="B59" s="103" t="n">
-        <v>2.86</v>
+        <v>12.13</v>
       </c>
       <c r="C59" s="103" t="n">
-        <v>3.52</v>
+        <v>13.4</v>
       </c>
       <c r="D59" s="133" t="n">
-        <v>0.600833333333333</v>
+        <v>9.5225</v>
       </c>
       <c r="E59" s="38" t="n">
-        <v>0.0239</v>
+        <v>0.115</v>
       </c>
       <c r="F59" s="38" t="n">
-        <v>15.3</v>
+        <v>167.24</v>
       </c>
       <c r="G59" s="131" t="n">
-        <v>0.052</v>
+        <v>0.0468</v>
       </c>
       <c r="H59" s="134" t="n">
-        <v>0.212638353624297</v>
-      </c>
-      <c r="I59" s="125" t="n">
-        <v>10.98544</v>
+        <v>0.0467016929363688</v>
+      </c>
+      <c r="I59" s="126" t="n">
+        <v>53.79</v>
       </c>
       <c r="J59" s="107" t="n">
-        <v>14.38941</v>
+        <v>4.30054</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="130" t="n">
-        <v>1948</v>
+        <v>1985</v>
       </c>
       <c r="B60" s="103" t="n">
-        <v>2.79</v>
+        <v>10.16</v>
       </c>
       <c r="C60" s="103" t="n">
-        <v>3.53</v>
+        <v>11.58</v>
       </c>
       <c r="D60" s="133" t="n">
-        <v>1.045</v>
+        <v>7.47916666666667</v>
       </c>
       <c r="E60" s="38" t="n">
-        <v>0.0244</v>
+        <v>0.0926</v>
       </c>
       <c r="F60" s="38" t="n">
-        <v>15.2</v>
+        <v>211.28</v>
       </c>
       <c r="G60" s="131" t="n">
-        <v>0.064</v>
+        <v>0.0388</v>
       </c>
       <c r="H60" s="134" t="n">
-        <v>0.0205854294411512</v>
-      </c>
-      <c r="I60" s="125" t="n">
-        <v>11.21158</v>
+        <v>0.0747350808700502</v>
+      </c>
+      <c r="I60" s="126" t="n">
+        <v>57.81</v>
       </c>
       <c r="J60" s="107" t="n">
-        <v>7.68944</v>
+        <v>3.54564</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="130" t="n">
-        <v>1949</v>
+        <v>1986</v>
       </c>
       <c r="B61" s="103" t="n">
-        <v>2.58</v>
+        <v>8.49</v>
       </c>
       <c r="C61" s="103" t="n">
-        <v>3.31</v>
+        <v>9.97</v>
       </c>
       <c r="D61" s="133" t="n">
-        <v>1.115</v>
+        <v>5.97833333333333</v>
       </c>
       <c r="E61" s="38" t="n">
-        <v>0.0219</v>
+        <v>0.0711</v>
       </c>
       <c r="F61" s="38" t="n">
-        <v>16.79</v>
+        <v>242.17</v>
       </c>
       <c r="G61" s="131" t="n">
-        <v>0.071</v>
+        <v>0.0338</v>
       </c>
       <c r="H61" s="134" t="n">
-        <v>0.000893718815724531</v>
-      </c>
-      <c r="I61" s="125" t="n">
-        <v>11.2216</v>
+        <v>0.0961771319840856</v>
+      </c>
+      <c r="I61" s="126" t="n">
+        <v>63.37</v>
       </c>
       <c r="J61" s="107" t="n">
-        <v>-0.97054</v>
+        <v>1.89805</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="130" t="n">
-        <v>1950</v>
+        <v>1987</v>
       </c>
       <c r="B62" s="103" t="n">
-        <v>2.67</v>
+        <v>10.11</v>
       </c>
       <c r="C62" s="103" t="n">
-        <v>3.2</v>
+        <v>11.29</v>
       </c>
       <c r="D62" s="133" t="n">
-        <v>1.20333333333333</v>
+        <v>5.775</v>
       </c>
       <c r="E62" s="38" t="n">
-        <v>0.0239</v>
+        <v>0.0899</v>
       </c>
       <c r="F62" s="38" t="n">
-        <v>20.43</v>
+        <v>247.08</v>
       </c>
       <c r="G62" s="131" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="H62" s="134" t="n">
-        <v>0.0364038996221572</v>
-      </c>
-      <c r="I62" s="125" t="n">
-        <v>11.63011</v>
+        <v>0.0371</v>
+      </c>
+      <c r="H62" s="131" t="n">
+        <v>0.0787</v>
+      </c>
+      <c r="I62" s="127" t="n">
+        <v>68.36</v>
       </c>
       <c r="J62" s="107" t="n">
-        <v>1.08505</v>
+        <v>3.66456</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="130" t="n">
-        <v>1951</v>
+        <v>1988</v>
       </c>
       <c r="B63" s="103" t="n">
-        <v>3.01</v>
+        <v>9.57</v>
       </c>
       <c r="C63" s="103" t="n">
-        <v>3.61</v>
+        <v>10.65</v>
       </c>
       <c r="D63" s="133" t="n">
-        <v>1.5175</v>
+        <v>6.6675</v>
       </c>
       <c r="E63" s="38" t="n">
-        <v>0.027</v>
+        <v>0.0911</v>
       </c>
       <c r="F63" s="38" t="n">
-        <v>23.77</v>
+        <v>277.72</v>
       </c>
       <c r="G63" s="131" t="n">
-        <v>0.063</v>
+        <v>0.0368</v>
       </c>
       <c r="H63" s="134" t="n">
-        <v>0.0604766420953886</v>
-      </c>
-      <c r="I63" s="125" t="n">
-        <v>12.33346</v>
+        <v>0.0721046</v>
+      </c>
+      <c r="I63" s="127" t="n">
+        <v>73.29</v>
       </c>
       <c r="J63" s="107" t="n">
-        <v>7.86011</v>
+        <v>4.07774</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="130" t="n">
-        <v>1952</v>
+        <v>1989</v>
       </c>
       <c r="B64" s="103" t="n">
-        <v>2.97</v>
+        <v>8.86</v>
       </c>
       <c r="C64" s="103" t="n">
-        <v>3.51</v>
+        <v>9.82</v>
       </c>
       <c r="D64" s="133" t="n">
-        <v>1.7225</v>
+        <v>8.11166666666667</v>
       </c>
       <c r="E64" s="38" t="n">
-        <v>0.0275</v>
+        <v>0.0784</v>
       </c>
       <c r="F64" s="38" t="n">
-        <v>26.57</v>
+        <v>353.4</v>
       </c>
       <c r="G64" s="131" t="n">
-        <v>0.057</v>
+        <v>0.0332</v>
       </c>
       <c r="H64" s="134" t="n">
-        <v>0.0440663041839029</v>
-      </c>
-      <c r="I64" s="125" t="n">
-        <v>12.87695</v>
+        <v>0.0438134</v>
+      </c>
+      <c r="I64" s="127" t="n">
+        <v>76.5</v>
       </c>
       <c r="J64" s="107" t="n">
-        <v>2.27929</v>
+        <v>4.827</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="130" t="n">
-        <v>1953</v>
+        <v>1990</v>
       </c>
       <c r="B65" s="103" t="n">
-        <v>3.13</v>
+        <v>9.05</v>
       </c>
       <c r="C65" s="103" t="n">
-        <v>3.74</v>
+        <v>10.43</v>
       </c>
       <c r="D65" s="133" t="n">
-        <v>1.89083333333333</v>
+        <v>7.49333333333333</v>
       </c>
       <c r="E65" s="38" t="n">
-        <v>0.0259</v>
+        <v>0.0808</v>
       </c>
       <c r="F65" s="38" t="n">
-        <v>24.81</v>
+        <v>330.22</v>
       </c>
       <c r="G65" s="131" t="n">
-        <v>0.058</v>
+        <v>0.0374</v>
       </c>
       <c r="H65" s="134" t="n">
-        <v>0.115166246665553</v>
-      </c>
-      <c r="I65" s="125" t="n">
-        <v>14.35994</v>
+        <v>-0.0069674</v>
+      </c>
+      <c r="I65" s="127" t="n">
+        <v>75.97</v>
       </c>
       <c r="J65" s="107" t="n">
-        <v>0.81607</v>
+        <v>5.39796</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="130" t="n">
-        <v>1954</v>
+        <v>1991</v>
       </c>
       <c r="B66" s="103" t="n">
-        <v>2.9</v>
+        <v>8.31</v>
       </c>
       <c r="C66" s="103" t="n">
-        <v>3.45</v>
+        <v>9.26</v>
       </c>
       <c r="D66" s="133" t="n">
-        <v>0.938333333333333</v>
+        <v>5.375</v>
       </c>
       <c r="E66" s="38" t="n">
-        <v>0.0251</v>
+        <v>0.0709</v>
       </c>
       <c r="F66" s="38" t="n">
-        <v>35.98</v>
+        <v>417.09</v>
       </c>
       <c r="G66" s="131" t="n">
-        <v>0.052</v>
+        <v>0.0311</v>
       </c>
       <c r="H66" s="134" t="n">
-        <v>0.0092270580517746</v>
-      </c>
-      <c r="I66" s="125" t="n">
-        <v>14.49244</v>
+        <v>-0.0017639</v>
+      </c>
+      <c r="I66" s="127" t="n">
+        <v>75.83</v>
       </c>
       <c r="J66" s="107" t="n">
-        <v>0.31133</v>
+        <v>4.23496</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="130" t="n">
-        <v>1955</v>
+        <v>1992</v>
       </c>
       <c r="B67" s="103" t="n">
-        <v>3.15</v>
+        <v>7.98</v>
       </c>
       <c r="C67" s="103" t="n">
-        <v>3.62</v>
+        <v>8.81</v>
       </c>
       <c r="D67" s="133" t="n">
-        <v>1.725</v>
+        <v>3.43166666666667</v>
       </c>
       <c r="E67" s="38" t="n">
-        <v>0.0296</v>
+        <v>0.0677</v>
       </c>
       <c r="F67" s="38" t="n">
-        <v>45.48</v>
+        <v>435.71</v>
       </c>
       <c r="G67" s="131" t="n">
-        <v>0.049</v>
+        <v>0.029</v>
       </c>
       <c r="H67" s="134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" s="125" t="n">
-        <v>14.49244</v>
+        <v>0.0083606</v>
+      </c>
+      <c r="I67" s="127" t="n">
+        <v>76.47</v>
       </c>
       <c r="J67" s="107" t="n">
-        <v>-0.27933</v>
+        <v>3.02882</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="130" t="n">
-        <v>1956</v>
+        <v>1993</v>
       </c>
       <c r="B68" s="103" t="n">
-        <v>3.75</v>
+        <v>6.93</v>
       </c>
       <c r="C68" s="103" t="n">
-        <v>4.37</v>
+        <v>7.69</v>
       </c>
       <c r="D68" s="133" t="n">
-        <v>2.6275</v>
+        <v>2.9975</v>
       </c>
       <c r="E68" s="38" t="n">
-        <v>0.0359</v>
+        <v>0.0577</v>
       </c>
       <c r="F68" s="38" t="n">
-        <v>46.67</v>
+        <v>466.45</v>
       </c>
       <c r="G68" s="131" t="n">
-        <v>0.047</v>
+        <v>0.0272</v>
       </c>
       <c r="H68" s="134" t="n">
-        <v>0.00914269784798139</v>
-      </c>
-      <c r="I68" s="125" t="n">
-        <v>14.62494</v>
+        <v>0.0216175</v>
+      </c>
+      <c r="I68" s="127" t="n">
+        <v>78.12</v>
       </c>
       <c r="J68" s="107" t="n">
-        <v>1.52505</v>
+        <v>2.95166</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="130" t="n">
-        <v>1957</v>
+        <v>1994</v>
       </c>
       <c r="B69" s="103" t="n">
-        <v>3.81</v>
+        <v>8.46</v>
       </c>
       <c r="C69" s="103" t="n">
-        <v>5.03</v>
+        <v>9.1</v>
       </c>
       <c r="D69" s="133" t="n">
-        <v>3.225</v>
+        <v>4.24666666666667</v>
       </c>
       <c r="E69" s="38" t="n">
-        <v>0.0321</v>
+        <v>0.0781</v>
       </c>
       <c r="F69" s="38" t="n">
-        <v>39.99</v>
+        <v>459.27</v>
       </c>
       <c r="G69" s="131" t="n">
-        <v>0.045</v>
+        <v>0.0291</v>
       </c>
       <c r="H69" s="134" t="n">
-        <v>0.0271802824490219</v>
-      </c>
-      <c r="I69" s="125" t="n">
-        <v>15.02245</v>
+        <v>0.0251539</v>
+      </c>
+      <c r="I69" s="127" t="n">
+        <v>80.08</v>
       </c>
       <c r="J69" s="107" t="n">
-        <v>3.34151</v>
+        <v>2.60744</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="130" t="n">
-        <v>1958</v>
+        <v>1995</v>
       </c>
       <c r="B70" s="103" t="n">
-        <v>4.08</v>
+        <v>6.82</v>
       </c>
       <c r="C70" s="103" t="n">
-        <v>4.85</v>
+        <v>7.49</v>
       </c>
       <c r="D70" s="133" t="n">
-        <v>1.77083333333333</v>
+        <v>5.49</v>
       </c>
       <c r="E70" s="38" t="n">
-        <v>0.0386</v>
+        <v>0.0571</v>
       </c>
       <c r="F70" s="38" t="n">
-        <v>55.21</v>
+        <v>615.93</v>
       </c>
       <c r="G70" s="131" t="n">
-        <v>0.041</v>
+        <v>0.023</v>
       </c>
       <c r="H70" s="134" t="n">
-        <v>0.00661543223641958</v>
-      </c>
-      <c r="I70" s="125" t="n">
-        <v>15.12183</v>
+        <v>0.018081</v>
+      </c>
+      <c r="I70" s="127" t="n">
+        <v>81.53</v>
       </c>
       <c r="J70" s="107" t="n">
-        <v>2.72916</v>
+        <v>2.80542</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="130" t="n">
-        <v>1959</v>
+        <v>1996</v>
       </c>
       <c r="B71" s="103" t="n">
-        <v>4.58</v>
+        <v>7.2</v>
       </c>
       <c r="C71" s="103" t="n">
-        <v>5.28</v>
+        <v>7.89</v>
       </c>
       <c r="D71" s="133" t="n">
-        <v>3.38583333333333</v>
+        <v>5.00583333333333</v>
       </c>
       <c r="E71" s="38" t="n">
-        <v>0.0469</v>
+        <v>0.063</v>
       </c>
       <c r="F71" s="38" t="n">
-        <v>59.89</v>
+        <v>740.74</v>
       </c>
       <c r="G71" s="131" t="n">
-        <v>0.033</v>
+        <v>0.0201</v>
       </c>
       <c r="H71" s="134" t="n">
-        <v>0.00109510555270087</v>
-      </c>
-      <c r="I71" s="125" t="n">
-        <v>15.13839</v>
+        <v>0.0243095</v>
+      </c>
+      <c r="I71" s="127" t="n">
+        <v>83.51</v>
       </c>
       <c r="J71" s="107" t="n">
-        <v>1.01068</v>
+        <v>2.9312</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="130" t="n">
-        <v>1960</v>
+        <v>1997</v>
       </c>
       <c r="B72" s="103" t="n">
-        <v>4.35</v>
+        <v>6.76</v>
       </c>
       <c r="C72" s="103" t="n">
-        <v>5.1</v>
+        <v>7.32</v>
       </c>
       <c r="D72" s="133" t="n">
-        <v>2.88333333333333</v>
+        <v>5.06083333333333</v>
       </c>
       <c r="E72" s="38" t="n">
-        <v>0.0384</v>
+        <v>0.0581</v>
       </c>
       <c r="F72" s="38" t="n">
-        <v>58.11</v>
+        <v>970.43</v>
       </c>
       <c r="G72" s="131" t="n">
-        <v>0.0341</v>
+        <v>0.0159949713013819</v>
       </c>
       <c r="H72" s="134" t="n">
-        <v>0.00765867440328871</v>
-      </c>
-      <c r="I72" s="125" t="n">
-        <v>15.25433</v>
+        <v>0.0402567</v>
+      </c>
+      <c r="I72" s="127" t="n">
+        <v>86.88</v>
       </c>
       <c r="J72" s="107" t="n">
-        <v>1.45798</v>
+        <v>2.33769</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="130" t="n">
-        <v>1961</v>
+        <v>1998</v>
       </c>
       <c r="B73" s="103" t="n">
-        <v>4.42</v>
+        <v>6.22</v>
       </c>
       <c r="C73" s="103" t="n">
-        <v>5.1</v>
+        <v>7.23</v>
       </c>
       <c r="D73" s="133" t="n">
-        <v>2.35416666666667</v>
+        <v>4.77666666666667</v>
       </c>
       <c r="E73" s="38" t="n">
-        <v>0.0406</v>
+        <v>0.0465</v>
       </c>
       <c r="F73" s="38" t="n">
-        <v>71.55</v>
+        <v>1229.23</v>
       </c>
       <c r="G73" s="131" t="n">
-        <v>0.0285</v>
+        <v>0.0131789819643191</v>
       </c>
       <c r="H73" s="134" t="n">
-        <v>0.00977165172118344</v>
-      </c>
-      <c r="I73" s="125" t="n">
-        <v>15.40339</v>
+        <v>0.0643791</v>
+      </c>
+      <c r="I73" s="127" t="n">
+        <v>92.47</v>
       </c>
       <c r="J73" s="107" t="n">
-        <v>1.07072</v>
+        <v>1.55228</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="130" t="n">
-        <v>1962</v>
+        <v>1999</v>
       </c>
       <c r="B74" s="103" t="n">
-        <v>4.24</v>
+        <v>7.55</v>
       </c>
       <c r="C74" s="103" t="n">
-        <v>4.92</v>
+        <v>8.19</v>
       </c>
       <c r="D74" s="133" t="n">
-        <v>2.77333333333333</v>
+        <v>4.63833333333333</v>
       </c>
       <c r="E74" s="38" t="n">
-        <v>0.0386</v>
+        <v>0.0644</v>
       </c>
       <c r="F74" s="38" t="n">
-        <v>63.1</v>
+        <v>1469.25</v>
       </c>
       <c r="G74" s="131" t="n">
-        <v>0.034</v>
+        <v>0.0113724689467415</v>
       </c>
       <c r="H74" s="134" t="n">
-        <v>0.00322591325675714</v>
-      </c>
-      <c r="I74" s="125" t="n">
-        <v>15.45308</v>
+        <v>0.076869</v>
+      </c>
+      <c r="I74" s="127" t="n">
+        <v>99.58</v>
       </c>
       <c r="J74" s="107" t="n">
-        <v>1.19877</v>
+        <v>2.18803</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="130" t="n">
-        <v>1963</v>
+        <v>2000</v>
       </c>
       <c r="B75" s="103" t="n">
-        <v>4.35</v>
+        <v>7.21</v>
       </c>
       <c r="C75" s="103" t="n">
-        <v>4.85</v>
+        <v>8.02</v>
       </c>
       <c r="D75" s="133" t="n">
-        <v>3.15916666666667</v>
+        <v>5.81666666666667</v>
       </c>
       <c r="E75" s="38" t="n">
-        <v>0.0413</v>
+        <v>0.0511</v>
       </c>
       <c r="F75" s="38" t="n">
-        <v>75.02</v>
-      </c>
-      <c r="G75" s="131" t="n">
-        <v>0.0313</v>
+        <v>1320.28</v>
+      </c>
+      <c r="G75" s="132" t="n">
+        <v>0.0123231435756052</v>
       </c>
       <c r="H75" s="134" t="n">
-        <v>0.0214365032731338</v>
-      </c>
-      <c r="I75" s="125" t="n">
-        <v>15.78434</v>
+        <v>0.0925415</v>
+      </c>
+      <c r="I75" s="127" t="n">
+        <v>108.79</v>
       </c>
       <c r="J75" s="107" t="n">
-        <v>1.23967</v>
+        <v>3.37686</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="130" t="n">
-        <v>1964</v>
+        <v>2001</v>
       </c>
       <c r="B76" s="103" t="n">
-        <v>4.44</v>
+        <v>6.77</v>
       </c>
       <c r="C76" s="103" t="n">
-        <v>4.81</v>
+        <v>8.05</v>
       </c>
       <c r="D76" s="133" t="n">
-        <v>3.54666666666667</v>
+        <v>3.38833333333333</v>
       </c>
       <c r="E76" s="38" t="n">
-        <v>0.0418</v>
+        <v>0.0505</v>
       </c>
       <c r="F76" s="38" t="n">
-        <v>84.75</v>
-      </c>
-      <c r="G76" s="131" t="n">
-        <v>0.0305</v>
+        <v>1148.09</v>
+      </c>
+      <c r="G76" s="132" t="n">
+        <v>0.0137097265893789</v>
       </c>
       <c r="H76" s="134" t="n">
-        <v>0.0125915939469119</v>
-      </c>
-      <c r="I76" s="125" t="n">
-        <v>15.98309</v>
+        <v>0.0667696</v>
+      </c>
+      <c r="I76" s="127" t="n">
+        <v>116.06</v>
       </c>
       <c r="J76" s="107" t="n">
-        <v>1.27891</v>
+        <v>2.82617</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="130" t="n">
-        <v>1965</v>
+        <v>2002</v>
       </c>
       <c r="B77" s="103" t="n">
-        <v>4.68</v>
+        <v>6.21</v>
       </c>
       <c r="C77" s="103" t="n">
-        <v>5.02</v>
+        <v>7.45</v>
       </c>
       <c r="D77" s="133" t="n">
-        <v>3.94916666666667</v>
+        <v>1.6025</v>
       </c>
       <c r="E77" s="38" t="n">
-        <v>0.0462</v>
+        <v>0.0382</v>
       </c>
       <c r="F77" s="38" t="n">
-        <v>92.43</v>
-      </c>
-      <c r="G77" s="131" t="n">
-        <v>0.0306</v>
+        <v>879.82</v>
+      </c>
+      <c r="G77" s="132" t="n">
+        <v>0.0182764656406992</v>
       </c>
       <c r="H77" s="134" t="n">
-        <v>0.0165800230118207</v>
-      </c>
-      <c r="I77" s="125" t="n">
-        <v>16.24809</v>
+        <v>0.0955918</v>
+      </c>
+      <c r="I77" s="127" t="n">
+        <v>127.15</v>
       </c>
       <c r="J77" s="107" t="n">
-        <v>1.58517</v>
+        <v>1.58603</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="130" t="n">
-        <v>1966</v>
+        <v>2003</v>
       </c>
       <c r="B78" s="103" t="n">
-        <v>5.39</v>
+        <v>5.62</v>
       </c>
       <c r="C78" s="103" t="n">
-        <v>6.18</v>
+        <v>6.6</v>
       </c>
       <c r="D78" s="133" t="n">
-        <v>4.8625</v>
+        <v>1.01083333333333</v>
       </c>
       <c r="E78" s="38" t="n">
-        <v>0.0484</v>
+        <v>0.0425</v>
       </c>
       <c r="F78" s="38" t="n">
-        <v>80.33</v>
-      </c>
-      <c r="G78" s="131" t="n">
-        <v>0.0359</v>
+        <v>1111.91</v>
+      </c>
+      <c r="G78" s="132" t="n">
+        <v>0.0156397550161434</v>
       </c>
       <c r="H78" s="134" t="n">
-        <v>0.0122328224425148</v>
-      </c>
-      <c r="I78" s="125" t="n">
-        <v>16.44685</v>
+        <v>0.0981675</v>
+      </c>
+      <c r="I78" s="127" t="n">
+        <v>139.63</v>
       </c>
       <c r="J78" s="107" t="n">
-        <v>3.01508</v>
+        <v>2.27009</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="130" t="n">
-        <v>1967</v>
+        <v>2004</v>
       </c>
       <c r="B79" s="103" t="n">
-        <v>6.19</v>
+        <v>5.47</v>
       </c>
       <c r="C79" s="103" t="n">
-        <v>6.93</v>
+        <v>6.15</v>
       </c>
       <c r="D79" s="133" t="n">
-        <v>4.30666666666667</v>
+        <v>1.37166666666667</v>
       </c>
       <c r="E79" s="38" t="n">
-        <v>0.057</v>
+        <v>0.0422</v>
       </c>
       <c r="F79" s="38" t="n">
-        <v>96.47</v>
-      </c>
-      <c r="G79" s="131" t="n">
-        <v>0.0309</v>
+        <v>1211.92</v>
+      </c>
+      <c r="G79" s="132" t="n">
+        <v>0.0160406627500165</v>
       </c>
       <c r="H79" s="134" t="n">
-        <v>0.0231618820625226</v>
-      </c>
-      <c r="I79" s="125" t="n">
-        <v>16.82779</v>
+        <v>0.1363799</v>
+      </c>
+      <c r="I79" s="127" t="n">
+        <v>158.68</v>
       </c>
       <c r="J79" s="107" t="n">
-        <v>2.77279</v>
+        <v>2.67724</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="130" t="n">
-        <v>1968</v>
+        <v>2005</v>
       </c>
       <c r="B80" s="103" t="n">
-        <v>6.45</v>
+        <v>5.37</v>
       </c>
       <c r="C80" s="103" t="n">
-        <v>7.23</v>
+        <v>6.32</v>
       </c>
       <c r="D80" s="133" t="n">
-        <v>5.33833333333333</v>
+        <v>3.14666666666667</v>
       </c>
       <c r="E80" s="38" t="n">
-        <v>0.0603</v>
+        <v>0.0439</v>
       </c>
       <c r="F80" s="38" t="n">
-        <v>103.86</v>
-      </c>
-      <c r="G80" s="131" t="n">
-        <v>0.0293</v>
+        <v>1248.29</v>
+      </c>
+      <c r="G80" s="132" t="n">
+        <v>0.0178003508800038</v>
       </c>
       <c r="H80" s="134" t="n">
-        <v>0.0413387616555709</v>
-      </c>
-      <c r="I80" s="125" t="n">
-        <v>17.52343</v>
+        <v>0.1351063</v>
+      </c>
+      <c r="I80" s="127" t="n">
+        <v>180.11</v>
       </c>
       <c r="J80" s="107" t="n">
-        <v>4.2718</v>
+        <v>3.39275</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="130" t="n">
-        <v>1969</v>
+        <v>2006</v>
       </c>
       <c r="B81" s="103" t="n">
-        <v>7.72</v>
+        <v>5.32</v>
       </c>
       <c r="C81" s="103" t="n">
-        <v>8.65</v>
+        <v>6.22</v>
       </c>
       <c r="D81" s="133" t="n">
-        <v>6.66666666666667</v>
+        <v>4.72666666666667</v>
       </c>
       <c r="E81" s="38" t="n">
-        <v>0.0765</v>
+        <v>0.047</v>
       </c>
       <c r="F81" s="38" t="n">
-        <v>92.06</v>
-      </c>
-      <c r="G81" s="131" t="n">
-        <v>0.0352</v>
+        <v>1418.3</v>
+      </c>
+      <c r="G81" s="132" t="n">
+        <v>0.0175421278995981</v>
       </c>
       <c r="H81" s="134" t="n">
-        <v>0.0699434985045735</v>
-      </c>
-      <c r="I81" s="125" t="n">
-        <v>18.74908</v>
+        <v>0.0173391</v>
+      </c>
+      <c r="I81" s="127" t="n">
+        <v>183.24</v>
       </c>
       <c r="J81" s="107" t="n">
-        <v>5.46239</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.22594</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="130" t="n">
-        <v>1970</v>
+        <v>2007</v>
       </c>
       <c r="B82" s="103" t="n">
-        <v>7.64</v>
+        <v>5.49</v>
       </c>
       <c r="C82" s="103" t="n">
-        <v>9.12</v>
+        <v>6.65</v>
       </c>
       <c r="D82" s="133" t="n">
-        <v>6.39166666666667</v>
-      </c>
-      <c r="E82" s="38" t="n">
-        <v>0.0639</v>
-      </c>
-      <c r="F82" s="38" t="n">
-        <v>92.15</v>
-      </c>
-      <c r="G82" s="131" t="n">
-        <v>0.0346</v>
+        <v>4.35333333333333</v>
+      </c>
+      <c r="E82" s="135" t="n">
+        <v>0.0402</v>
+      </c>
+      <c r="F82" s="135" t="n">
+        <v>1468.36</v>
+      </c>
+      <c r="G82" s="136" t="n">
+        <v>0.0188850145740827</v>
       </c>
       <c r="H82" s="134" t="n">
-        <v>0.0821549644035868</v>
-      </c>
-      <c r="I82" s="125" t="n">
-        <v>20.28941</v>
+        <v>-0.0539741</v>
+      </c>
+      <c r="I82" s="127" t="n">
+        <v>173.35</v>
       </c>
       <c r="J82" s="107" t="n">
-        <v>5.83826</v>
+        <v>2.85267</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="130" t="n">
-        <v>1971</v>
+        <v>2008</v>
       </c>
       <c r="B83" s="103" t="n">
-        <v>7.25</v>
+        <v>5.05</v>
       </c>
       <c r="C83" s="103" t="n">
-        <v>8.38</v>
+        <v>8.43</v>
       </c>
       <c r="D83" s="133" t="n">
-        <v>4.3325</v>
-      </c>
-      <c r="E83" s="38" t="n">
-        <v>0.0593</v>
+        <v>1.365</v>
+      </c>
+      <c r="E83" s="135" t="n">
+        <v>0.0221</v>
       </c>
       <c r="F83" s="38" t="n">
-        <v>102.09</v>
-      </c>
-      <c r="G83" s="131" t="n">
-        <v>0.031</v>
+        <v>903.25</v>
+      </c>
+      <c r="G83" s="132" t="n">
+        <v>0.031430943814005</v>
       </c>
       <c r="H83" s="134" t="n">
-        <v>0.0424492382972201</v>
-      </c>
-      <c r="I83" s="125" t="n">
-        <v>21.15068</v>
+        <v>-0.1199508</v>
+      </c>
+      <c r="I83" s="127" t="n">
+        <v>152.55</v>
       </c>
       <c r="J83" s="107" t="n">
-        <v>4.29277</v>
+        <v>3.8391</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="130" t="n">
-        <v>1972</v>
+        <v>2009</v>
       </c>
       <c r="B84" s="103" t="n">
-        <v>7.08</v>
+        <v>5.26</v>
       </c>
       <c r="C84" s="103" t="n">
-        <v>7.93</v>
+        <v>6.37</v>
       </c>
       <c r="D84" s="133" t="n">
-        <v>4.0725</v>
-      </c>
-      <c r="E84" s="38" t="n">
-        <v>0.0636</v>
+        <v>0.15</v>
+      </c>
+      <c r="E84" s="135" t="n">
+        <v>0.0384</v>
       </c>
       <c r="F84" s="38" t="n">
-        <v>118.05</v>
-      </c>
-      <c r="G84" s="131" t="n">
-        <v>0.027</v>
+        <v>1115.1</v>
+      </c>
+      <c r="G84" s="132" t="n">
+        <v>0.0200968523002421</v>
       </c>
       <c r="H84" s="134" t="n">
-        <v>0.0297574356947388</v>
-      </c>
-      <c r="I84" s="125" t="n">
-        <v>21.78007</v>
+        <v>-0.0385374</v>
+      </c>
+      <c r="I84" s="127" t="n">
+        <v>146.67</v>
       </c>
       <c r="J84" s="107" t="n">
-        <v>3.27228</v>
+        <v>-0.35555</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="130" t="n">
-        <v>1973</v>
+        <v>2010</v>
       </c>
       <c r="B85" s="103" t="n">
-        <v>7.68</v>
+        <v>5.02</v>
       </c>
       <c r="C85" s="103" t="n">
-        <v>8.48</v>
+        <v>6.1</v>
       </c>
       <c r="D85" s="133" t="n">
-        <v>7.03166666666667</v>
-      </c>
-      <c r="E85" s="38" t="n">
-        <v>0.0674</v>
+        <v>0.136666666666667</v>
+      </c>
+      <c r="E85" s="135" t="n">
+        <v>0.0329</v>
       </c>
       <c r="F85" s="38" t="n">
-        <v>97.55</v>
-      </c>
-      <c r="G85" s="131" t="n">
-        <v>0.037</v>
+        <v>1257.64</v>
+      </c>
+      <c r="G85" s="132" t="n">
+        <v>0.0180735345567889</v>
       </c>
       <c r="H85" s="134" t="n">
-        <v>0.0342202756924106</v>
-      </c>
-      <c r="I85" s="125" t="n">
-        <v>22.52539</v>
+        <v>-0.0411661</v>
+      </c>
+      <c r="I85" s="127" t="n">
+        <v>140.64</v>
       </c>
       <c r="J85" s="107" t="n">
-        <v>6.17776</v>
+        <v>1.64004</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="130" t="n">
-        <v>1974</v>
+        <v>2011</v>
       </c>
       <c r="B86" s="103" t="n">
-        <v>8.89</v>
+        <v>3.93</v>
       </c>
       <c r="C86" s="103" t="n">
-        <v>10.63</v>
+        <v>5.25</v>
       </c>
       <c r="D86" s="133" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="E86" s="38" t="n">
-        <v>0.0743</v>
+        <v>0.0525</v>
+      </c>
+      <c r="E86" s="135" t="n">
+        <v>0.0188</v>
       </c>
       <c r="F86" s="38" t="n">
-        <v>68.56</v>
-      </c>
-      <c r="G86" s="131" t="n">
-        <v>0.0543</v>
+        <v>1257.6</v>
+      </c>
+      <c r="G86" s="132" t="n">
+        <v>0.0210162213740458</v>
       </c>
       <c r="H86" s="134" t="n">
-        <v>0.100735214795393</v>
-      </c>
-      <c r="I86" s="125" t="n">
-        <v>24.79449</v>
+        <v>-0.0389587</v>
+      </c>
+      <c r="I86" s="127" t="n">
+        <v>135.16</v>
       </c>
       <c r="J86" s="107" t="n">
-        <v>11.0548</v>
+        <v>3.15684</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="130" t="n">
-        <v>1975</v>
+        <v>2012</v>
       </c>
       <c r="B87" s="103" t="n">
-        <v>8.79</v>
+        <v>3.65</v>
       </c>
       <c r="C87" s="103" t="n">
-        <v>10.56</v>
+        <v>4.63</v>
       </c>
       <c r="D87" s="133" t="n">
-        <v>5.775</v>
-      </c>
-      <c r="E87" s="38" t="n">
-        <v>0.08</v>
+        <v>0.0858333333333333</v>
+      </c>
+      <c r="E87" s="135" t="n">
+        <v>0.0176</v>
       </c>
       <c r="F87" s="38" t="n">
-        <v>90.19</v>
-      </c>
-      <c r="G87" s="131" t="n">
-        <v>0.0414</v>
+        <v>1426.19</v>
+      </c>
+      <c r="G87" s="132" t="n">
+        <v>0.0219115265147</v>
       </c>
       <c r="H87" s="134" t="n">
-        <v>0.0675759009360548</v>
-      </c>
-      <c r="I87" s="126" t="n">
-        <v>26.47</v>
+        <v>0.0645028</v>
+      </c>
+      <c r="I87" s="127" t="n">
+        <v>143.88</v>
       </c>
       <c r="J87" s="107" t="n">
-        <v>9.14315</v>
+        <v>2.06934</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="130" t="n">
-        <v>1976</v>
+        <v>2013</v>
       </c>
       <c r="B88" s="103" t="n">
-        <v>7.98</v>
+        <v>4.62</v>
       </c>
       <c r="C88" s="103" t="n">
-        <v>9.12</v>
+        <v>5.38</v>
       </c>
       <c r="D88" s="133" t="n">
-        <v>4.97416666666667</v>
-      </c>
-      <c r="E88" s="38" t="n">
-        <v>0.0687</v>
+        <v>0.0583333333333333</v>
+      </c>
+      <c r="E88" s="135" t="n">
+        <v>0.03036</v>
       </c>
       <c r="F88" s="38" t="n">
-        <v>107.46</v>
-      </c>
-      <c r="G88" s="131" t="n">
-        <v>0.0393</v>
+        <v>1848.36</v>
+      </c>
+      <c r="G88" s="132" t="n">
+        <v>0.0196282109545759</v>
       </c>
       <c r="H88" s="134" t="n">
-        <v>0.0819795995466566</v>
-      </c>
-      <c r="I88" s="126" t="n">
-        <v>28.64</v>
+        <v>0.1071347</v>
+      </c>
+      <c r="I88" s="127" t="n">
+        <v>159.29</v>
       </c>
       <c r="J88" s="107" t="n">
-        <v>5.74481</v>
+        <v>1.46483</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="130" t="n">
-        <v>1977</v>
+        <v>2014</v>
       </c>
       <c r="B89" s="103" t="n">
-        <v>8.19</v>
+        <v>3.79</v>
       </c>
       <c r="C89" s="103" t="n">
-        <v>8.99</v>
+        <v>4.74</v>
       </c>
       <c r="D89" s="133" t="n">
-        <v>5.26916666666667</v>
-      </c>
-      <c r="E89" s="38" t="n">
-        <v>0.0769</v>
-      </c>
-      <c r="F89" s="38" t="n">
-        <v>95.1</v>
-      </c>
-      <c r="G89" s="131" t="n">
-        <v>0.0511</v>
+        <v>0.0325</v>
+      </c>
+      <c r="E89" s="137" t="n">
+        <v>0.0217</v>
+      </c>
+      <c r="F89" s="138" t="n">
+        <v>2058.9</v>
+      </c>
+      <c r="G89" s="132" t="n">
+        <v>0.0191558599252028</v>
       </c>
       <c r="H89" s="134" t="n">
-        <v>0.146648044692738</v>
-      </c>
-      <c r="I89" s="126" t="n">
-        <v>32.84</v>
+        <v>0.0452071</v>
+      </c>
+      <c r="I89" s="127" t="n">
+        <v>166.49</v>
       </c>
       <c r="J89" s="107" t="n">
-        <v>6.50168</v>
+        <v>1.62222</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="130" t="n">
-        <v>1978</v>
+        <v>2015</v>
       </c>
       <c r="B90" s="103" t="n">
-        <v>9.16</v>
+        <v>3.97</v>
       </c>
       <c r="C90" s="103" t="n">
-        <v>9.94</v>
+        <v>5.46</v>
       </c>
       <c r="D90" s="133" t="n">
-        <v>7.18833333333333</v>
-      </c>
-      <c r="E90" s="38" t="n">
-        <v>0.0901</v>
+        <v>0.0525</v>
+      </c>
+      <c r="E90" s="135" t="n">
+        <v>0.0227</v>
       </c>
       <c r="F90" s="38" t="n">
-        <v>96.11</v>
-      </c>
-      <c r="G90" s="131" t="n">
-        <v>0.0539</v>
+        <v>2043.9</v>
+      </c>
+      <c r="G90" s="132" t="n">
+        <v>0.0212290229463281</v>
       </c>
       <c r="H90" s="134" t="n">
-        <v>0.157125456760049</v>
-      </c>
-      <c r="I90" s="126" t="n">
-        <v>38</v>
+        <v>0.0521893</v>
+      </c>
+      <c r="I90" s="127" t="n">
+        <v>175.18</v>
       </c>
       <c r="J90" s="107" t="n">
-        <v>7.63096</v>
+        <v>0.11863</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="130" t="n">
-        <v>1979</v>
+        <v>2016</v>
       </c>
       <c r="B91" s="103" t="n">
-        <v>10.74</v>
+        <v>4.06</v>
       </c>
       <c r="C91" s="103" t="n">
-        <v>12.06</v>
+        <v>4.83</v>
       </c>
       <c r="D91" s="133" t="n">
-        <v>10.0691666666667</v>
-      </c>
-      <c r="E91" s="38" t="n">
-        <v>0.1039</v>
+        <v>0.3175</v>
+      </c>
+      <c r="E91" s="135" t="n">
+        <v>0.0245</v>
       </c>
       <c r="F91" s="38" t="n">
-        <v>107.94</v>
-      </c>
-      <c r="G91" s="131" t="n">
-        <v>0.0553</v>
+        <v>2238.83</v>
+      </c>
+      <c r="G91" s="132" t="n">
+        <v>0.0204124475730627</v>
       </c>
       <c r="H91" s="134" t="n">
-        <v>0.137368421052632</v>
-      </c>
-      <c r="I91" s="126" t="n">
-        <v>43.22</v>
+        <v>0.0533055</v>
+      </c>
+      <c r="I91" s="127" t="n">
+        <v>184.52</v>
       </c>
       <c r="J91" s="107" t="n">
-        <v>11.25447</v>
+        <v>1.26158</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="130" t="n">
-        <v>1980</v>
+        <v>2017</v>
       </c>
       <c r="B92" s="103" t="n">
-        <v>13.21</v>
+        <v>3.51</v>
       </c>
       <c r="C92" s="103" t="n">
-        <v>15.14</v>
+        <v>4.22</v>
       </c>
       <c r="D92" s="133" t="n">
-        <v>11.4341666666667</v>
-      </c>
-      <c r="E92" s="38" t="n">
-        <v>0.1284</v>
+        <v>0.930833333333333</v>
+      </c>
+      <c r="E92" s="135" t="n">
+        <v>0.0241</v>
       </c>
       <c r="F92" s="38" t="n">
-        <v>135.76</v>
-      </c>
-      <c r="G92" s="131" t="n">
-        <v>0.0474</v>
+        <v>2673.61</v>
+      </c>
+      <c r="G92" s="132" t="n">
+        <v>0.0183010985147422</v>
       </c>
       <c r="H92" s="134" t="n">
-        <v>0.0740397963905599</v>
-      </c>
-      <c r="I92" s="126" t="n">
-        <v>46.42</v>
+        <v>0.0623032</v>
+      </c>
+      <c r="I92" s="127" t="n">
+        <v>196.01</v>
       </c>
       <c r="J92" s="107" t="n">
-        <v>13.5492</v>
+        <v>2.13011</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="130" t="n">
-        <v>1981</v>
+        <v>2018</v>
       </c>
       <c r="B93" s="103" t="n">
-        <v>14.23</v>
+        <v>4.02</v>
       </c>
       <c r="C93" s="103" t="n">
-        <v>16.55</v>
+        <v>5.13</v>
       </c>
       <c r="D93" s="133" t="n">
-        <v>14.025</v>
-      </c>
-      <c r="E93" s="38" t="n">
-        <v>0.1372</v>
+        <v>1.93916666666667</v>
+      </c>
+      <c r="E93" s="135" t="n">
+        <v>0.0269</v>
       </c>
       <c r="F93" s="38" t="n">
-        <v>122.55</v>
-      </c>
-      <c r="G93" s="131" t="n">
-        <v>0.0557</v>
+        <v>2506.85</v>
+      </c>
+      <c r="G93" s="132" t="n">
+        <v>0.0214412509723358</v>
       </c>
       <c r="H93" s="134" t="n">
-        <v>0.050840155105558</v>
-      </c>
-      <c r="I93" s="126" t="n">
-        <v>48.78</v>
+        <v>0.0454613</v>
+      </c>
+      <c r="I93" s="127" t="n">
+        <v>204.92</v>
       </c>
       <c r="J93" s="107" t="n">
-        <v>10.33472</v>
+        <v>2.44258</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="130" t="n">
-        <v>1982</v>
+        <v>2019</v>
       </c>
       <c r="B94" s="103" t="n">
-        <v>11.83</v>
+        <v>3.01</v>
       </c>
       <c r="C94" s="103" t="n">
-        <v>14.14</v>
+        <v>3.88</v>
       </c>
       <c r="D94" s="133" t="n">
-        <v>10.6141666666667</v>
-      </c>
-      <c r="E94" s="38" t="n">
-        <v>0.1054</v>
+        <v>1.55</v>
+      </c>
+      <c r="E94" s="139" t="n">
+        <v>0.0192</v>
       </c>
       <c r="F94" s="38" t="n">
-        <v>140.64</v>
-      </c>
-      <c r="G94" s="131" t="n">
-        <v>0.0493</v>
+        <v>3230.78</v>
+      </c>
+      <c r="G94" s="132" t="n">
+        <v>0.0181070825002012</v>
       </c>
       <c r="H94" s="134" t="n">
-        <v>0.00574005740057393</v>
-      </c>
-      <c r="I94" s="126" t="n">
-        <v>49.06</v>
-      </c>
-      <c r="J94" s="107" t="n">
-        <v>6.13143</v>
+        <v>0.0454613</v>
+      </c>
+      <c r="I94" s="127" t="n">
+        <v>211.96</v>
+      </c>
+      <c r="J94" s="140" t="n">
+        <v>2.29</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="130" t="n">
-        <v>1983</v>
-      </c>
-      <c r="B95" s="103" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="C95" s="103" t="n">
-        <v>13.75</v>
+        <v>2020</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>3.11</v>
       </c>
       <c r="D95" s="133" t="n">
-        <v>8.61083333333333</v>
-      </c>
-      <c r="E95" s="38" t="n">
-        <v>0.1183</v>
+        <v>0.09</v>
+      </c>
+      <c r="E95" s="79" t="n">
+        <v>0.0093</v>
       </c>
       <c r="F95" s="38" t="n">
-        <v>164.93</v>
-      </c>
-      <c r="G95" s="131" t="n">
-        <v>0.0432</v>
-      </c>
-      <c r="H95" s="134" t="n">
-        <v>0.0474928658785161</v>
-      </c>
-      <c r="I95" s="126" t="n">
-        <v>51.39</v>
-      </c>
-      <c r="J95" s="107" t="n">
-        <v>3.21244</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="130" t="n">
-        <v>1984</v>
-      </c>
-      <c r="B96" s="103" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="C96" s="103" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D96" s="133" t="n">
-        <v>9.5225</v>
-      </c>
-      <c r="E96" s="38" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="F96" s="38" t="n">
-        <v>167.24</v>
-      </c>
-      <c r="G96" s="131" t="n">
-        <v>0.0468</v>
-      </c>
-      <c r="H96" s="134" t="n">
-        <v>0.0467016929363688</v>
-      </c>
-      <c r="I96" s="126" t="n">
-        <v>53.79</v>
-      </c>
-      <c r="J96" s="107" t="n">
-        <v>4.30054</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="130" t="n">
-        <v>1985</v>
-      </c>
-      <c r="B97" s="103" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="C97" s="103" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="D97" s="133" t="n">
-        <v>7.47916666666667</v>
-      </c>
-      <c r="E97" s="38" t="n">
-        <v>0.0926</v>
-      </c>
-      <c r="F97" s="38" t="n">
-        <v>211.28</v>
-      </c>
-      <c r="G97" s="131" t="n">
-        <v>0.0388</v>
-      </c>
-      <c r="H97" s="134" t="n">
-        <v>0.0747350808700502</v>
-      </c>
-      <c r="I97" s="126" t="n">
-        <v>57.81</v>
-      </c>
-      <c r="J97" s="107" t="n">
-        <v>3.54564</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="130" t="n">
-        <v>1986</v>
-      </c>
-      <c r="B98" s="103" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="C98" s="103" t="n">
-        <v>9.97</v>
-      </c>
-      <c r="D98" s="133" t="n">
-        <v>5.97833333333333</v>
-      </c>
-      <c r="E98" s="38" t="n">
-        <v>0.0711</v>
-      </c>
-      <c r="F98" s="38" t="n">
-        <v>242.17</v>
-      </c>
-      <c r="G98" s="131" t="n">
-        <v>0.0338</v>
-      </c>
-      <c r="H98" s="134" t="n">
-        <v>0.0961771319840856</v>
-      </c>
-      <c r="I98" s="126" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="J98" s="107" t="n">
-        <v>1.89805</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="130" t="n">
-        <v>1987</v>
-      </c>
-      <c r="B99" s="103" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="C99" s="103" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="D99" s="133" t="n">
-        <v>5.775</v>
-      </c>
-      <c r="E99" s="38" t="n">
-        <v>0.0899</v>
-      </c>
-      <c r="F99" s="38" t="n">
-        <v>247.08</v>
-      </c>
-      <c r="G99" s="131" t="n">
-        <v>0.0371</v>
-      </c>
-      <c r="H99" s="131" t="n">
-        <v>0.0787</v>
-      </c>
-      <c r="I99" s="127" t="n">
-        <v>68.36</v>
-      </c>
-      <c r="J99" s="107" t="n">
-        <v>3.66456</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="130" t="n">
-        <v>1988</v>
-      </c>
-      <c r="B100" s="103" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="C100" s="103" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="D100" s="133" t="n">
-        <v>6.6675</v>
-      </c>
-      <c r="E100" s="38" t="n">
-        <v>0.0911</v>
-      </c>
-      <c r="F100" s="38" t="n">
-        <v>277.72</v>
-      </c>
-      <c r="G100" s="131" t="n">
-        <v>0.0368</v>
-      </c>
-      <c r="H100" s="134" t="n">
-        <v>0.0721046</v>
-      </c>
-      <c r="I100" s="127" t="n">
-        <v>73.29</v>
-      </c>
-      <c r="J100" s="107" t="n">
-        <v>4.07774</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="130" t="n">
-        <v>1989</v>
-      </c>
-      <c r="B101" s="103" t="n">
-        <v>8.86</v>
-      </c>
-      <c r="C101" s="103" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="D101" s="133" t="n">
-        <v>8.11166666666667</v>
-      </c>
-      <c r="E101" s="38" t="n">
-        <v>0.0784</v>
-      </c>
-      <c r="F101" s="38" t="n">
-        <v>353.4</v>
-      </c>
-      <c r="G101" s="131" t="n">
-        <v>0.0332</v>
-      </c>
-      <c r="H101" s="134" t="n">
-        <v>0.0438134</v>
-      </c>
-      <c r="I101" s="127" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="J101" s="107" t="n">
-        <v>4.827</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="130" t="n">
-        <v>1990</v>
-      </c>
-      <c r="B102" s="103" t="n">
-        <v>9.05</v>
-      </c>
-      <c r="C102" s="103" t="n">
-        <v>10.43</v>
-      </c>
-      <c r="D102" s="133" t="n">
-        <v>7.49333333333333</v>
-      </c>
-      <c r="E102" s="38" t="n">
-        <v>0.0808</v>
-      </c>
-      <c r="F102" s="38" t="n">
-        <v>330.22</v>
-      </c>
-      <c r="G102" s="131" t="n">
-        <v>0.0374</v>
-      </c>
-      <c r="H102" s="134" t="n">
-        <v>-0.0069674</v>
-      </c>
-      <c r="I102" s="127" t="n">
-        <v>75.97</v>
-      </c>
-      <c r="J102" s="107" t="n">
-        <v>5.39796</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="130" t="n">
-        <v>1991</v>
-      </c>
-      <c r="B103" s="103" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="C103" s="103" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="D103" s="133" t="n">
-        <v>5.375</v>
-      </c>
-      <c r="E103" s="38" t="n">
-        <v>0.0709</v>
-      </c>
-      <c r="F103" s="38" t="n">
-        <v>417.09</v>
-      </c>
-      <c r="G103" s="131" t="n">
-        <v>0.0311</v>
-      </c>
-      <c r="H103" s="134" t="n">
-        <v>-0.0017639</v>
-      </c>
-      <c r="I103" s="127" t="n">
-        <v>75.83</v>
-      </c>
-      <c r="J103" s="107" t="n">
-        <v>4.23496</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="130" t="n">
-        <v>1992</v>
-      </c>
-      <c r="B104" s="103" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="C104" s="103" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="D104" s="133" t="n">
-        <v>3.43166666666667</v>
-      </c>
-      <c r="E104" s="38" t="n">
-        <v>0.0677</v>
-      </c>
-      <c r="F104" s="38" t="n">
-        <v>435.71</v>
-      </c>
-      <c r="G104" s="131" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="H104" s="134" t="n">
-        <v>0.0083606</v>
-      </c>
-      <c r="I104" s="127" t="n">
-        <v>76.47</v>
-      </c>
-      <c r="J104" s="107" t="n">
-        <v>3.02882</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="130" t="n">
-        <v>1993</v>
-      </c>
-      <c r="B105" s="103" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="C105" s="103" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="D105" s="133" t="n">
-        <v>2.9975</v>
-      </c>
-      <c r="E105" s="38" t="n">
-        <v>0.0577</v>
-      </c>
-      <c r="F105" s="38" t="n">
-        <v>466.45</v>
-      </c>
-      <c r="G105" s="131" t="n">
-        <v>0.0272</v>
-      </c>
-      <c r="H105" s="134" t="n">
-        <v>0.0216175</v>
-      </c>
-      <c r="I105" s="127" t="n">
-        <v>78.12</v>
-      </c>
-      <c r="J105" s="107" t="n">
-        <v>2.95166</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="130" t="n">
-        <v>1994</v>
-      </c>
-      <c r="B106" s="103" t="n">
-        <v>8.46</v>
-      </c>
-      <c r="C106" s="103" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="D106" s="133" t="n">
-        <v>4.24666666666667</v>
-      </c>
-      <c r="E106" s="38" t="n">
-        <v>0.0781</v>
-      </c>
-      <c r="F106" s="38" t="n">
-        <v>459.27</v>
-      </c>
-      <c r="G106" s="131" t="n">
-        <v>0.0291</v>
-      </c>
-      <c r="H106" s="134" t="n">
-        <v>0.0251539</v>
-      </c>
-      <c r="I106" s="127" t="n">
-        <v>80.08</v>
-      </c>
-      <c r="J106" s="107" t="n">
-        <v>2.60744</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="130" t="n">
-        <v>1995</v>
-      </c>
-      <c r="B107" s="103" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="C107" s="103" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="D107" s="133" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="E107" s="38" t="n">
-        <v>0.0571</v>
-      </c>
-      <c r="F107" s="38" t="n">
-        <v>615.93</v>
-      </c>
-      <c r="G107" s="131" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="H107" s="134" t="n">
-        <v>0.018081</v>
-      </c>
-      <c r="I107" s="127" t="n">
-        <v>81.53</v>
-      </c>
-      <c r="J107" s="107" t="n">
-        <v>2.80542</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="130" t="n">
-        <v>1996</v>
-      </c>
-      <c r="B108" s="103" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="C108" s="103" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="D108" s="133" t="n">
-        <v>5.00583333333333</v>
-      </c>
-      <c r="E108" s="38" t="n">
-        <v>0.063</v>
-      </c>
-      <c r="F108" s="38" t="n">
-        <v>740.74</v>
-      </c>
-      <c r="G108" s="131" t="n">
-        <v>0.0201</v>
-      </c>
-      <c r="H108" s="134" t="n">
-        <v>0.0243095</v>
-      </c>
-      <c r="I108" s="127" t="n">
-        <v>83.51</v>
-      </c>
-      <c r="J108" s="107" t="n">
-        <v>2.9312</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="130" t="n">
-        <v>1997</v>
-      </c>
-      <c r="B109" s="103" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="C109" s="103" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="D109" s="133" t="n">
-        <v>5.06083333333333</v>
-      </c>
-      <c r="E109" s="38" t="n">
-        <v>0.0581</v>
-      </c>
-      <c r="F109" s="38" t="n">
-        <v>970.43</v>
-      </c>
-      <c r="G109" s="131" t="n">
-        <v>0.0159949713013819</v>
-      </c>
-      <c r="H109" s="134" t="n">
-        <v>0.0402567</v>
-      </c>
-      <c r="I109" s="127" t="n">
-        <v>86.88</v>
-      </c>
-      <c r="J109" s="107" t="n">
-        <v>2.33769</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="130" t="n">
-        <v>1998</v>
-      </c>
-      <c r="B110" s="103" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="C110" s="103" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="D110" s="133" t="n">
-        <v>4.77666666666667</v>
-      </c>
-      <c r="E110" s="38" t="n">
-        <v>0.0465</v>
-      </c>
-      <c r="F110" s="38" t="n">
-        <v>1229.23</v>
-      </c>
-      <c r="G110" s="131" t="n">
-        <v>0.0131789819643191</v>
-      </c>
-      <c r="H110" s="134" t="n">
-        <v>0.0643791</v>
-      </c>
-      <c r="I110" s="127" t="n">
-        <v>92.47</v>
-      </c>
-      <c r="J110" s="107" t="n">
-        <v>1.55228</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="130" t="n">
-        <v>1999</v>
-      </c>
-      <c r="B111" s="103" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="C111" s="103" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="D111" s="133" t="n">
-        <v>4.63833333333333</v>
-      </c>
-      <c r="E111" s="38" t="n">
-        <v>0.0644</v>
-      </c>
-      <c r="F111" s="38" t="n">
-        <v>1469.25</v>
-      </c>
-      <c r="G111" s="131" t="n">
-        <v>0.0113724689467415</v>
-      </c>
-      <c r="H111" s="134" t="n">
-        <v>0.076869</v>
-      </c>
-      <c r="I111" s="127" t="n">
-        <v>99.58</v>
-      </c>
-      <c r="J111" s="107" t="n">
-        <v>2.18803</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="130" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B112" s="103" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="C112" s="103" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="D112" s="133" t="n">
-        <v>5.81666666666667</v>
-      </c>
-      <c r="E112" s="38" t="n">
-        <v>0.0511</v>
-      </c>
-      <c r="F112" s="38" t="n">
-        <v>1320.28</v>
-      </c>
-      <c r="G112" s="132" t="n">
-        <v>0.0123231435756052</v>
-      </c>
-      <c r="H112" s="134" t="n">
-        <v>0.0925415</v>
-      </c>
-      <c r="I112" s="127" t="n">
-        <v>108.79</v>
-      </c>
-      <c r="J112" s="107" t="n">
-        <v>3.37686</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="130" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B113" s="103" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="C113" s="103" t="n">
-        <v>8.05</v>
-      </c>
-      <c r="D113" s="133" t="n">
-        <v>3.38833333333333</v>
-      </c>
-      <c r="E113" s="38" t="n">
-        <v>0.0505</v>
-      </c>
-      <c r="F113" s="38" t="n">
-        <v>1148.09</v>
-      </c>
-      <c r="G113" s="132" t="n">
-        <v>0.0137097265893789</v>
-      </c>
-      <c r="H113" s="134" t="n">
-        <v>0.0667696</v>
-      </c>
-      <c r="I113" s="127" t="n">
-        <v>116.06</v>
-      </c>
-      <c r="J113" s="107" t="n">
-        <v>2.82617</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="130" t="n">
-        <v>2002</v>
-      </c>
-      <c r="B114" s="103" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="C114" s="103" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="D114" s="133" t="n">
-        <v>1.6025</v>
-      </c>
-      <c r="E114" s="38" t="n">
-        <v>0.0382</v>
-      </c>
-      <c r="F114" s="38" t="n">
-        <v>879.82</v>
-      </c>
-      <c r="G114" s="132" t="n">
-        <v>0.0182764656406992</v>
-      </c>
-      <c r="H114" s="134" t="n">
-        <v>0.0955918</v>
-      </c>
-      <c r="I114" s="127" t="n">
-        <v>127.15</v>
-      </c>
-      <c r="J114" s="107" t="n">
-        <v>1.58603</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="130" t="n">
-        <v>2003</v>
-      </c>
-      <c r="B115" s="103" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="C115" s="103" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D115" s="133" t="n">
-        <v>1.01083333333333</v>
-      </c>
-      <c r="E115" s="38" t="n">
-        <v>0.0425</v>
-      </c>
-      <c r="F115" s="38" t="n">
-        <v>1111.91</v>
-      </c>
-      <c r="G115" s="132" t="n">
-        <v>0.0156397550161434</v>
-      </c>
-      <c r="H115" s="134" t="n">
-        <v>0.0981675</v>
-      </c>
-      <c r="I115" s="127" t="n">
-        <v>139.63</v>
-      </c>
-      <c r="J115" s="107" t="n">
-        <v>2.27009</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="130" t="n">
-        <v>2004</v>
-      </c>
-      <c r="B116" s="103" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="C116" s="103" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="D116" s="133" t="n">
-        <v>1.37166666666667</v>
-      </c>
-      <c r="E116" s="38" t="n">
-        <v>0.0422</v>
-      </c>
-      <c r="F116" s="38" t="n">
-        <v>1211.92</v>
-      </c>
-      <c r="G116" s="132" t="n">
-        <v>0.0160406627500165</v>
-      </c>
-      <c r="H116" s="134" t="n">
-        <v>0.1363799</v>
-      </c>
-      <c r="I116" s="127" t="n">
-        <v>158.68</v>
-      </c>
-      <c r="J116" s="107" t="n">
-        <v>2.67724</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="130" t="n">
-        <v>2005</v>
-      </c>
-      <c r="B117" s="103" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="C117" s="103" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="D117" s="133" t="n">
-        <v>3.14666666666667</v>
-      </c>
-      <c r="E117" s="38" t="n">
-        <v>0.0439</v>
-      </c>
-      <c r="F117" s="38" t="n">
-        <v>1248.29</v>
-      </c>
-      <c r="G117" s="132" t="n">
-        <v>0.0178003508800038</v>
-      </c>
-      <c r="H117" s="134" t="n">
-        <v>0.1351063</v>
-      </c>
-      <c r="I117" s="127" t="n">
-        <v>180.11</v>
-      </c>
-      <c r="J117" s="107" t="n">
-        <v>3.39275</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="130" t="n">
-        <v>2006</v>
-      </c>
-      <c r="B118" s="103" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="C118" s="103" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="D118" s="133" t="n">
-        <v>4.72666666666667</v>
-      </c>
-      <c r="E118" s="38" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="F118" s="38" t="n">
-        <v>1418.3</v>
-      </c>
-      <c r="G118" s="132" t="n">
-        <v>0.0175421278995981</v>
-      </c>
-      <c r="H118" s="134" t="n">
-        <v>0.0173391</v>
-      </c>
-      <c r="I118" s="127" t="n">
-        <v>183.24</v>
-      </c>
-      <c r="J118" s="107" t="n">
-        <v>3.22594</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="130" t="n">
-        <v>2007</v>
-      </c>
-      <c r="B119" s="103" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="C119" s="103" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="D119" s="133" t="n">
-        <v>4.35333333333333</v>
-      </c>
-      <c r="E119" s="135" t="n">
-        <v>0.0402</v>
-      </c>
-      <c r="F119" s="135" t="n">
-        <v>1468.36</v>
-      </c>
-      <c r="G119" s="136" t="n">
-        <v>0.0188850145740827</v>
-      </c>
-      <c r="H119" s="134" t="n">
-        <v>-0.0539741</v>
-      </c>
-      <c r="I119" s="127" t="n">
-        <v>173.35</v>
-      </c>
-      <c r="J119" s="107" t="n">
-        <v>2.85267</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="130" t="n">
-        <v>2008</v>
-      </c>
-      <c r="B120" s="103" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="C120" s="103" t="n">
-        <v>8.43</v>
-      </c>
-      <c r="D120" s="133" t="n">
-        <v>1.365</v>
-      </c>
-      <c r="E120" s="135" t="n">
-        <v>0.0221</v>
-      </c>
-      <c r="F120" s="38" t="n">
-        <v>903.25</v>
-      </c>
-      <c r="G120" s="132" t="n">
-        <v>0.031430943814005</v>
-      </c>
-      <c r="H120" s="134" t="n">
-        <v>-0.1199508</v>
-      </c>
-      <c r="I120" s="127" t="n">
-        <v>152.55</v>
-      </c>
-      <c r="J120" s="107" t="n">
-        <v>3.8391</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="130" t="n">
-        <v>2009</v>
-      </c>
-      <c r="B121" s="103" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="C121" s="103" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="D121" s="133" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E121" s="135" t="n">
-        <v>0.0384</v>
-      </c>
-      <c r="F121" s="38" t="n">
-        <v>1115.1</v>
-      </c>
-      <c r="G121" s="132" t="n">
-        <v>0.0200968523002421</v>
-      </c>
-      <c r="H121" s="134" t="n">
-        <v>-0.0385374</v>
-      </c>
-      <c r="I121" s="127" t="n">
-        <v>146.67</v>
-      </c>
-      <c r="J121" s="107" t="n">
-        <v>-0.35555</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="130" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B122" s="103" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="C122" s="103" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="D122" s="133" t="n">
-        <v>0.136666666666667</v>
-      </c>
-      <c r="E122" s="135" t="n">
-        <v>0.0329</v>
-      </c>
-      <c r="F122" s="38" t="n">
-        <v>1257.64</v>
-      </c>
-      <c r="G122" s="132" t="n">
-        <v>0.0180735345567889</v>
-      </c>
-      <c r="H122" s="134" t="n">
-        <v>-0.0411661</v>
-      </c>
-      <c r="I122" s="127" t="n">
-        <v>140.64</v>
-      </c>
-      <c r="J122" s="107" t="n">
-        <v>1.64004</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="130" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B123" s="103" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="C123" s="103" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="D123" s="133" t="n">
-        <v>0.0525</v>
-      </c>
-      <c r="E123" s="135" t="n">
-        <v>0.0188</v>
-      </c>
-      <c r="F123" s="38" t="n">
-        <v>1257.6</v>
-      </c>
-      <c r="G123" s="132" t="n">
-        <v>0.0210162213740458</v>
-      </c>
-      <c r="H123" s="134" t="n">
-        <v>-0.0389587</v>
-      </c>
-      <c r="I123" s="127" t="n">
-        <v>135.16</v>
-      </c>
-      <c r="J123" s="107" t="n">
-        <v>3.15684</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="130" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B124" s="103" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="C124" s="103" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="D124" s="133" t="n">
-        <v>0.0858333333333333</v>
-      </c>
-      <c r="E124" s="135" t="n">
-        <v>0.0176</v>
-      </c>
-      <c r="F124" s="38" t="n">
-        <v>1426.19</v>
-      </c>
-      <c r="G124" s="132" t="n">
-        <v>0.0219115265147</v>
-      </c>
-      <c r="H124" s="134" t="n">
-        <v>0.0645028</v>
-      </c>
-      <c r="I124" s="127" t="n">
-        <v>143.88</v>
-      </c>
-      <c r="J124" s="107" t="n">
-        <v>2.06934</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="130" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B125" s="103" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="C125" s="103" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="D125" s="133" t="n">
-        <v>0.0583333333333333</v>
-      </c>
-      <c r="E125" s="135" t="n">
-        <v>0.03036</v>
-      </c>
-      <c r="F125" s="38" t="n">
-        <v>1848.36</v>
-      </c>
-      <c r="G125" s="132" t="n">
-        <v>0.0196282109545759</v>
-      </c>
-      <c r="H125" s="134" t="n">
-        <v>0.1071347</v>
-      </c>
-      <c r="I125" s="127" t="n">
-        <v>159.29</v>
-      </c>
-      <c r="J125" s="107" t="n">
-        <v>1.46483</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="130" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B126" s="103" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="C126" s="103" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="D126" s="133" t="n">
-        <v>0.0325</v>
-      </c>
-      <c r="E126" s="137" t="n">
-        <v>0.0217</v>
-      </c>
-      <c r="F126" s="138" t="n">
-        <v>2058.9</v>
-      </c>
-      <c r="G126" s="132" t="n">
-        <v>0.0191558599252028</v>
-      </c>
-      <c r="H126" s="134" t="n">
-        <v>0.0452071</v>
-      </c>
-      <c r="I126" s="127" t="n">
-        <v>166.49</v>
-      </c>
-      <c r="J126" s="107" t="n">
-        <v>1.62222</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="130" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B127" s="103" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="C127" s="103" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="D127" s="133" t="n">
-        <v>0.0525</v>
-      </c>
-      <c r="E127" s="135" t="n">
-        <v>0.0227</v>
-      </c>
-      <c r="F127" s="38" t="n">
-        <v>2043.9</v>
-      </c>
-      <c r="G127" s="132" t="n">
-        <v>0.0212290229463281</v>
-      </c>
-      <c r="H127" s="134" t="n">
-        <v>0.0521893</v>
-      </c>
-      <c r="I127" s="127" t="n">
-        <v>175.18</v>
-      </c>
-      <c r="J127" s="107" t="n">
-        <v>0.11863</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="130" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B128" s="103" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="C128" s="103" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="D128" s="133" t="n">
-        <v>0.3175</v>
-      </c>
-      <c r="E128" s="135" t="n">
-        <v>0.0245</v>
-      </c>
-      <c r="F128" s="38" t="n">
-        <v>2238.83</v>
-      </c>
-      <c r="G128" s="132" t="n">
-        <v>0.0204124475730627</v>
-      </c>
-      <c r="H128" s="134" t="n">
-        <v>0.0533055</v>
-      </c>
-      <c r="I128" s="127" t="n">
-        <v>184.52</v>
-      </c>
-      <c r="J128" s="107" t="n">
-        <v>1.26158</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="130" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B129" s="103" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="C129" s="103" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="D129" s="133" t="n">
-        <v>0.930833333333333</v>
-      </c>
-      <c r="E129" s="135" t="n">
-        <v>0.0241</v>
-      </c>
-      <c r="F129" s="38" t="n">
-        <v>2673.61</v>
-      </c>
-      <c r="G129" s="132" t="n">
-        <v>0.0183010985147422</v>
-      </c>
-      <c r="H129" s="134" t="n">
-        <v>0.0623032</v>
-      </c>
-      <c r="I129" s="127" t="n">
-        <v>196.01</v>
-      </c>
-      <c r="J129" s="107" t="n">
-        <v>2.13011</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="130" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B130" s="103" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="C130" s="103" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="D130" s="133" t="n">
-        <v>1.93916666666667</v>
-      </c>
-      <c r="E130" s="135" t="n">
-        <v>0.0269</v>
-      </c>
-      <c r="F130" s="38" t="n">
-        <v>2506.85</v>
-      </c>
-      <c r="G130" s="132" t="n">
-        <v>0.0214412509723358</v>
-      </c>
-      <c r="H130" s="134" t="n">
-        <v>0.0454613</v>
-      </c>
-      <c r="I130" s="127" t="n">
-        <v>204.92</v>
-      </c>
-      <c r="J130" s="107" t="n">
-        <v>2.44258</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="130" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B131" s="103" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="C131" s="103" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="D131" s="133" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="E131" s="139" t="n">
-        <v>0.0192</v>
-      </c>
-      <c r="F131" s="38" t="n">
-        <v>3230.78</v>
-      </c>
-      <c r="G131" s="132" t="n">
-        <v>0.0181070825002012</v>
-      </c>
-      <c r="H131" s="134" t="n">
-        <v>0.0454613</v>
-      </c>
-      <c r="I131" s="127" t="n">
-        <v>211.96</v>
-      </c>
-      <c r="J131" s="140" t="n">
-        <v>2.29</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="130" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B132" s="0" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="C132" s="0" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="D132" s="133" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E132" s="79" t="n">
-        <v>0.0093</v>
-      </c>
-      <c r="F132" s="38" t="n">
         <v>3756.07</v>
       </c>
-      <c r="G132" s="132" t="n">
+      <c r="G95" s="132" t="n">
         <v>0.0150955653116156</v>
       </c>
-      <c r="H132" s="141"/>
-      <c r="J132" s="140" t="n">
+      <c r="H95" s="141"/>
+      <c r="J95" s="140" t="n">
         <v>1.2</v>
       </c>
     </row>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5851,17 +5302,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.04"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5879,9 +5337,9 @@
   </sheetPr>
   <dimension ref="A1:T121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B7" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B16" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
       <selection pane="topRight" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -6832,7 +6290,7 @@
       </c>
       <c r="L28" s="52" t="n">
         <f aca="false">B28-E28</f>
-        <v>-0.309205370703673</v>
+        <v>-0.309205370703672</v>
       </c>
       <c r="M28" s="53"/>
       <c r="N28" s="54" t="n">
@@ -6889,7 +6347,7 @@
       </c>
       <c r="I29" s="51" t="n">
         <f aca="false">I28*(1+E29)</f>
-        <v>197.051578881493</v>
+        <v>197.051578881494</v>
       </c>
       <c r="J29" s="50" t="n">
         <f aca="false">B29-C29</f>
@@ -7027,7 +6485,7 @@
       </c>
       <c r="I31" s="51" t="n">
         <f aca="false">I30*(1+E31)</f>
-        <v>231.184198470387</v>
+        <v>231.184198470388</v>
       </c>
       <c r="J31" s="50" t="n">
         <f aca="false">B31-C31</f>
@@ -7096,7 +6554,7 @@
       </c>
       <c r="I32" s="51" t="n">
         <f aca="false">I31*(1+E32)</f>
-        <v>242.759990906507</v>
+        <v>242.759990906508</v>
       </c>
       <c r="J32" s="50" t="n">
         <f aca="false">B32-C32</f>
@@ -7165,7 +6623,7 @@
       </c>
       <c r="I33" s="51" t="n">
         <f aca="false">I32*(1+E33)</f>
-        <v>255.334718206631</v>
+        <v>255.334718206632</v>
       </c>
       <c r="J33" s="50" t="n">
         <f aca="false">B33-C33</f>
@@ -7234,7 +6692,7 @@
       </c>
       <c r="I34" s="51" t="n">
         <f aca="false">I33*(1+E34)</f>
-        <v>275.875553835256</v>
+        <v>275.875553835257</v>
       </c>
       <c r="J34" s="50" t="n">
         <f aca="false">B34-C34</f>
@@ -7303,7 +6761,7 @@
       </c>
       <c r="I35" s="51" t="n">
         <f aca="false">I34*(1+E35)</f>
-        <v>293.989166373425</v>
+        <v>293.989166373426</v>
       </c>
       <c r="J35" s="50" t="n">
         <f aca="false">B35-C35</f>
@@ -7372,7 +6830,7 @@
       </c>
       <c r="I36" s="51" t="n">
         <f aca="false">I35*(1+E36)</f>
-        <v>313.980034206176</v>
+        <v>313.980034206177</v>
       </c>
       <c r="J36" s="50" t="n">
         <f aca="false">B36-C36</f>
@@ -7648,7 +7106,7 @@
       </c>
       <c r="I40" s="51" t="n">
         <f aca="false">I39*(1+E40)</f>
-        <v>351.738279107802</v>
+        <v>351.738279107803</v>
       </c>
       <c r="J40" s="50" t="n">
         <f aca="false">B40-C40</f>
@@ -7717,7 +7175,7 @@
       </c>
       <c r="I41" s="51" t="n">
         <f aca="false">I40*(1+E41)</f>
-        <v>366.647822153297</v>
+        <v>366.647822153298</v>
       </c>
       <c r="J41" s="50" t="n">
         <f aca="false">B41-C41</f>
@@ -7786,7 +7244,7 @@
       </c>
       <c r="I42" s="51" t="n">
         <f aca="false">I41*(1+E42)</f>
-        <v>365.947594795004</v>
+        <v>365.947594795005</v>
       </c>
       <c r="J42" s="50" t="n">
         <f aca="false">B42-C42</f>
@@ -7855,7 +7313,7 @@
       </c>
       <c r="I43" s="51" t="n">
         <f aca="false">I42*(1+E43)</f>
-        <v>382.200211260638</v>
+        <v>382.200211260639</v>
       </c>
       <c r="J43" s="50" t="n">
         <f aca="false">B43-C43</f>
@@ -7993,7 +7451,7 @@
       </c>
       <c r="I45" s="51" t="n">
         <f aca="false">I44*(1+E45)</f>
-        <v>412.309112801469</v>
+        <v>412.30911280147</v>
       </c>
       <c r="J45" s="50" t="n">
         <f aca="false">B45-C45</f>
@@ -8062,7 +7520,7 @@
       </c>
       <c r="I46" s="51" t="n">
         <f aca="false">I45*(1+E46)</f>
-        <v>420.739556017924</v>
+        <v>420.739556017925</v>
       </c>
       <c r="J46" s="50" t="n">
         <f aca="false">B46-C46</f>
@@ -8200,7 +7658,7 @@
       </c>
       <c r="I48" s="51" t="n">
         <f aca="false">I47*(1+E48)</f>
-        <v>407.887356331481</v>
+        <v>407.887356331482</v>
       </c>
       <c r="J48" s="50" t="n">
         <f aca="false">B48-C48</f>
@@ -8407,7 +7865,7 @@
       </c>
       <c r="I51" s="51" t="n">
         <f aca="false">I50*(1+E51)</f>
-        <v>470.330630557207</v>
+        <v>470.330630557208</v>
       </c>
       <c r="J51" s="50" t="n">
         <f aca="false">B51-C51</f>
@@ -8479,7 +7937,7 @@
       </c>
       <c r="I52" s="51" t="n">
         <f aca="false">I51*(1+E52)</f>
-        <v>494.317492715624</v>
+        <v>494.317492715625</v>
       </c>
       <c r="J52" s="50" t="n">
         <f aca="false">B52-C52</f>
@@ -8551,7 +8009,7 @@
       </c>
       <c r="I53" s="51" t="n">
         <f aca="false">I52*(1+E53)</f>
-        <v>526.425035197276</v>
+        <v>526.425035197277</v>
       </c>
       <c r="J53" s="50" t="n">
         <f aca="false">B53-C53</f>
@@ -8623,7 +8081,7 @@
       </c>
       <c r="I54" s="51" t="n">
         <f aca="false">I53*(1+E54)</f>
-        <v>555.191428967492</v>
+        <v>555.191428967493</v>
       </c>
       <c r="J54" s="50" t="n">
         <f aca="false">B54-C54</f>
@@ -8695,7 +8153,7 @@
       </c>
       <c r="I55" s="51" t="n">
         <f aca="false">I54*(1+E55)</f>
-        <v>583.848962992867</v>
+        <v>583.848962992868</v>
       </c>
       <c r="J55" s="50" t="n">
         <f aca="false">B55-C55</f>
@@ -8767,7 +8225,7 @@
       </c>
       <c r="I56" s="51" t="n">
         <f aca="false">I55*(1+E56)</f>
-        <v>602.473800157611</v>
+        <v>602.473800157612</v>
       </c>
       <c r="J56" s="50" t="n">
         <f aca="false">B56-C56</f>
@@ -8839,7 +8297,7 @@
       </c>
       <c r="I57" s="51" t="n">
         <f aca="false">I56*(1+E57)</f>
-        <v>581.716399211514</v>
+        <v>581.716399211515</v>
       </c>
       <c r="J57" s="50" t="n">
         <f aca="false">B57-C57</f>
@@ -8911,7 +8369,7 @@
       </c>
       <c r="I58" s="51" t="n">
         <f aca="false">I57*(1+E58)</f>
-        <v>586.924079240172</v>
+        <v>586.924079240173</v>
       </c>
       <c r="J58" s="50" t="n">
         <f aca="false">B58-C58</f>
@@ -8983,7 +8441,7 @@
       </c>
       <c r="I59" s="51" t="n">
         <f aca="false">I58*(1+E59)</f>
-        <v>615.361409105042</v>
+        <v>615.361409105043</v>
       </c>
       <c r="J59" s="50" t="n">
         <f aca="false">B59-C59</f>
@@ -9055,7 +8513,7 @@
       </c>
       <c r="I60" s="51" t="n">
         <f aca="false">I59*(1+E60)</f>
-        <v>602.899329834675</v>
+        <v>602.899329834677</v>
       </c>
       <c r="J60" s="50" t="n">
         <f aca="false">B60-C60</f>
@@ -9127,7 +8585,7 @@
       </c>
       <c r="I61" s="51" t="n">
         <f aca="false">I60*(1+E61)</f>
-        <v>636.960535377218</v>
+        <v>636.960535377219</v>
       </c>
       <c r="J61" s="50" t="n">
         <f aca="false">B61-C61</f>
@@ -9199,7 +8657,7 @@
       </c>
       <c r="I62" s="51" t="n">
         <f aca="false">I61*(1+E62)</f>
-        <v>726.144349281189</v>
+        <v>726.14434928119</v>
       </c>
       <c r="J62" s="50" t="n">
         <f aca="false">B62-C62</f>
@@ -9271,7 +8729,7 @@
       </c>
       <c r="I63" s="51" t="n">
         <f aca="false">I62*(1+E63)</f>
-        <v>808.990837612131</v>
+        <v>808.990837612132</v>
       </c>
       <c r="J63" s="50" t="n">
         <f aca="false">B63-C63</f>
@@ -9343,7 +8801,7 @@
       </c>
       <c r="I64" s="51" t="n">
         <f aca="false">I63*(1+E64)</f>
-        <v>843.923389503661</v>
+        <v>843.923389503662</v>
       </c>
       <c r="J64" s="50" t="n">
         <f aca="false">B64-C64</f>
@@ -9415,7 +8873,7 @@
       </c>
       <c r="I65" s="51" t="n">
         <f aca="false">I64*(1+E65)</f>
-        <v>806.953470502091</v>
+        <v>806.953470502092</v>
       </c>
       <c r="J65" s="50" t="n">
         <f aca="false">B65-C65</f>
@@ -9487,7 +8945,7 @@
       </c>
       <c r="I66" s="51" t="n">
         <f aca="false">I65*(1+E66)</f>
-        <v>896.121539087638</v>
+        <v>896.12153908764</v>
       </c>
       <c r="J66" s="50" t="n">
         <f aca="false">B66-C66</f>
@@ -9775,7 +9233,7 @@
       </c>
       <c r="I70" s="51" t="n">
         <f aca="false">I69*(1+E70)</f>
-        <v>1192.52901414191</v>
+        <v>1192.52901414192</v>
       </c>
       <c r="J70" s="50" t="n">
         <f aca="false">B70-C70</f>
@@ -9847,7 +9305,7 @@
       </c>
       <c r="I71" s="51" t="n">
         <f aca="false">I70*(1+E71)</f>
-        <v>1152.98858795529</v>
+        <v>1152.9885879553</v>
       </c>
       <c r="J71" s="50" t="n">
         <f aca="false">B71-C71</f>
@@ -9991,7 +9449,7 @@
       </c>
       <c r="I73" s="51" t="n">
         <f aca="false">I72*(1+E73)</f>
-        <v>1613.87721279819</v>
+        <v>1613.8772127982</v>
       </c>
       <c r="J73" s="50" t="n">
         <f aca="false">B73-C73</f>
@@ -10207,7 +9665,7 @@
       </c>
       <c r="I76" s="51" t="n">
         <f aca="false">I75*(1+E76)</f>
-        <v>2685.50274801644</v>
+        <v>2685.50274801645</v>
       </c>
       <c r="J76" s="50" t="n">
         <f aca="false">B76-C76</f>
@@ -10279,7 +9737,7 @@
       </c>
       <c r="I77" s="51" t="n">
         <f aca="false">I76*(1+E77)</f>
-        <v>3262.49685208553</v>
+        <v>3262.49685208554</v>
       </c>
       <c r="J77" s="50" t="n">
         <f aca="false">B77-C77</f>
@@ -10351,7 +9809,7 @@
       </c>
       <c r="I78" s="51" t="n">
         <f aca="false">I77*(1+E78)</f>
-        <v>3337.20300850266</v>
+        <v>3337.20300850267</v>
       </c>
       <c r="J78" s="50" t="n">
         <f aca="false">B78-C78</f>
@@ -10423,7 +9881,7 @@
       </c>
       <c r="I79" s="51" t="n">
         <f aca="false">I78*(1+E79)</f>
-        <v>3841.62358151987</v>
+        <v>3841.62358151989</v>
       </c>
       <c r="J79" s="50" t="n">
         <f aca="false">B79-C79</f>
@@ -10495,7 +9953,7 @@
       </c>
       <c r="I80" s="51" t="n">
         <f aca="false">I79*(1+E80)</f>
-        <v>4448.20313443492</v>
+        <v>4448.20313443494</v>
       </c>
       <c r="J80" s="50" t="n">
         <f aca="false">B80-C80</f>
@@ -10567,7 +10025,7 @@
       </c>
       <c r="I81" s="51" t="n">
         <f aca="false">I80*(1+E81)</f>
-        <v>4721.32560418988</v>
+        <v>4721.3256041899</v>
       </c>
       <c r="J81" s="50" t="n">
         <f aca="false">B81-C81</f>
@@ -10639,7 +10097,7 @@
       </c>
       <c r="I82" s="51" t="n">
         <f aca="false">I81*(1+E82)</f>
-        <v>5564.24686409076</v>
+        <v>5564.24686409078</v>
       </c>
       <c r="J82" s="50" t="n">
         <f aca="false">B82-C82</f>
@@ -10711,7 +10169,7 @@
       </c>
       <c r="I83" s="51" t="n">
         <f aca="false">I82*(1+E83)</f>
-        <v>6241.54122962059</v>
+        <v>6241.54122962062</v>
       </c>
       <c r="J83" s="50" t="n">
         <f aca="false">B83-C83</f>
@@ -10783,7 +10241,7 @@
       </c>
       <c r="I84" s="51" t="n">
         <f aca="false">I83*(1+E84)</f>
-        <v>7267.12115153171</v>
+        <v>7267.12115153173</v>
       </c>
       <c r="J84" s="50" t="n">
         <f aca="false">B84-C84</f>
@@ -10855,7 +10313,7 @@
       </c>
       <c r="I85" s="51" t="n">
         <f aca="false">I84*(1+E85)</f>
-        <v>7171.25304602865</v>
+        <v>7171.25304602868</v>
       </c>
       <c r="J85" s="50" t="n">
         <f aca="false">B85-C85</f>
@@ -10927,7 +10385,7 @@
       </c>
       <c r="I86" s="51" t="n">
         <f aca="false">I85*(1+E86)</f>
-        <v>8616.70645555487</v>
+        <v>8616.7064555549</v>
       </c>
       <c r="J86" s="50" t="n">
         <f aca="false">B86-C86</f>
@@ -10999,7 +10457,7 @@
       </c>
       <c r="I87" s="51" t="n">
         <f aca="false">I86*(1+E87)</f>
-        <v>9029.67067911874</v>
+        <v>9029.67067911877</v>
       </c>
       <c r="J87" s="50" t="n">
         <f aca="false">B87-C87</f>
@@ -11143,7 +10601,7 @@
       </c>
       <c r="I89" s="51" t="n">
         <f aca="false">I88*(1+E89)</f>
-        <v>10900.6797689755</v>
+        <v>10900.6797689756</v>
       </c>
       <c r="J89" s="50" t="n">
         <f aca="false">B89-C89</f>
@@ -11287,7 +10745,7 @@
       </c>
       <c r="I91" s="51" t="n">
         <f aca="false">I90*(1+E91)</f>
-        <v>12018.1644267797</v>
+        <v>12018.1644267798</v>
       </c>
       <c r="J91" s="50" t="n">
         <f aca="false">B91-C91</f>
@@ -11503,7 +10961,7 @@
       </c>
       <c r="I94" s="51" t="n">
         <f aca="false">I93*(1+E94)</f>
-        <v>16502.8732333867</v>
+        <v>16502.8732333868</v>
       </c>
       <c r="J94" s="50" t="n">
         <f aca="false">B94-C94</f>
@@ -11575,7 +11033,7 @@
       </c>
       <c r="I95" s="51" t="n">
         <f aca="false">I94*(1+E95)</f>
-        <v>18134.7810441988</v>
+        <v>18134.7810441989</v>
       </c>
       <c r="J95" s="50" t="n">
         <f aca="false">B95-C95</f>
@@ -11647,7 +11105,7 @@
       </c>
       <c r="I96" s="51" t="n">
         <f aca="false">I95*(1+E96)</f>
-        <v>19026.5657909373</v>
+        <v>19026.5657909374</v>
       </c>
       <c r="J96" s="50" t="n">
         <f aca="false">B96-C96</f>
@@ -11719,7 +11177,7 @@
       </c>
       <c r="I97" s="51" t="n">
         <f aca="false">I96*(1+E97)</f>
-        <v>20367.6338094738</v>
+        <v>20367.6338094739</v>
       </c>
       <c r="J97" s="50" t="n">
         <f aca="false">B97-C97</f>
@@ -11791,7 +11249,7 @@
       </c>
       <c r="I98" s="51" t="n">
         <f aca="false">I97*(1+E98)</f>
-        <v>21009.2929246616</v>
+        <v>21009.2929246617</v>
       </c>
       <c r="J98" s="50" t="n">
         <f aca="false">B98-C98</f>
@@ -11863,7 +11321,7 @@
       </c>
       <c r="I99" s="51" t="n">
         <f aca="false">I98*(1+E99)</f>
-        <v>19945.0220995803</v>
+        <v>19945.0220995804</v>
       </c>
       <c r="J99" s="50" t="n">
         <f aca="false">B99-C99</f>
@@ -11935,7 +11393,7 @@
       </c>
       <c r="I100" s="51" t="n">
         <f aca="false">I99*(1+E100)</f>
-        <v>24598.0965272644</v>
+        <v>24598.0965272645</v>
       </c>
       <c r="J100" s="50" t="n">
         <f aca="false">B100-C100</f>
@@ -12007,7 +11465,7 @@
       </c>
       <c r="I101" s="51" t="n">
         <f aca="false">I100*(1+E101)</f>
-        <v>26651.506850374</v>
+        <v>26651.5068503741</v>
       </c>
       <c r="J101" s="50" t="n">
         <f aca="false">B101-C101</f>
@@ -12079,7 +11537,7 @@
       </c>
       <c r="I102" s="51" t="n">
         <f aca="false">I101*(1+E102)</f>
-        <v>30005.469568142</v>
+        <v>30005.4695681421</v>
       </c>
       <c r="J102" s="50" t="n">
         <f aca="false">B102-C102</f>
@@ -12151,7 +11609,7 @@
       </c>
       <c r="I103" s="51" t="n">
         <f aca="false">I102*(1+E103)</f>
-        <v>33043.4267070506</v>
+        <v>33043.4267070508</v>
       </c>
       <c r="J103" s="50" t="n">
         <f aca="false">B103-C103</f>
@@ -12223,7 +11681,7 @@
       </c>
       <c r="I104" s="51" t="n">
         <f aca="false">I103*(1+E104)</f>
-        <v>32694.5207656334</v>
+        <v>32694.5207656336</v>
       </c>
       <c r="J104" s="50" t="n">
         <f aca="false">B104-C104</f>
@@ -12295,7 +11753,7 @@
       </c>
       <c r="I105" s="51" t="n">
         <f aca="false">I104*(1+E105)</f>
-        <v>36089.8166099991</v>
+        <v>36089.8166099992</v>
       </c>
       <c r="J105" s="50" t="n">
         <f aca="false">B105-C105</f>
@@ -12367,7 +11825,7 @@
       </c>
       <c r="I106" s="51" t="n">
         <f aca="false">I105*(1+E106)</f>
-        <v>35838.0835102017</v>
+        <v>35838.0835102019</v>
       </c>
       <c r="J106" s="50" t="n">
         <f aca="false">B106-C106</f>
@@ -12439,7 +11897,7 @@
       </c>
       <c r="I107" s="51" t="n">
         <f aca="false">I106*(1+E107)</f>
-        <v>39552.7387905368</v>
+        <v>39552.7387905369</v>
       </c>
       <c r="J107" s="50" t="n">
         <f aca="false">B107-C107</f>
@@ -12511,7 +11969,7 @@
       </c>
       <c r="I108" s="51" t="n">
         <f aca="false">I107*(1+E108)</f>
-        <v>43398.8083275845</v>
+        <v>43398.8083275847</v>
       </c>
       <c r="J108" s="50" t="n">
         <f aca="false">B108-C108</f>
@@ -12583,7 +12041,7 @@
       </c>
       <c r="I109" s="51" t="n">
         <f aca="false">I108*(1+E109)</f>
-        <v>42199.8606008377</v>
+        <v>42199.8606008379</v>
       </c>
       <c r="J109" s="50" t="n">
         <f aca="false">B109-C109</f>
@@ -12654,7 +12112,7 @@
       </c>
       <c r="I110" s="51" t="n">
         <f aca="false">I109*(1+E110)</f>
-        <v>48668.8703230218</v>
+        <v>48668.870323022</v>
       </c>
       <c r="J110" s="50" t="n">
         <f aca="false">B110-C110</f>
@@ -12725,7 +12183,7 @@
       </c>
       <c r="I111" s="51" t="n">
         <f aca="false">I110*(1+E111)</f>
-        <v>53736.0478406495</v>
+        <v>53736.0478406497</v>
       </c>
       <c r="J111" s="50" t="n">
         <f aca="false">B111-C111</f>
@@ -13023,7 +12481,7 @@
       </c>
       <c r="E119" s="76" t="n">
         <f aca="false">(I111/100)^(1/($A$111-$A$19+1))-1</f>
-        <v>0.0699357425984131</v>
+        <v>0.0699357425984133</v>
       </c>
       <c r="F119" s="77"/>
       <c r="G119" s="77"/>
@@ -13703,7 +13161,7 @@
       </c>
       <c r="H14" s="78" t="n">
         <f aca="false">((G13*(1-(1+G14)^(-10))/G14+1/(1+G14)^10)-1)+G13</f>
-        <v>0.0431441265009569</v>
+        <v>0.0431441265009571</v>
       </c>
       <c r="I14" s="83" t="n">
         <f aca="false">'Moody''s Rates'!K31</f>
@@ -21283,7 +20741,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
